--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>927829.8803243901</v>
+        <v>853988.6873887482</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>405687.0519298023</v>
+        <v>405687.0519298026</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11773978.35958493</v>
+        <v>11773978.35958495</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>82.69355372315668</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.583694061602047</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="V8" t="n">
         <v>241.0142888776591</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="10">
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>308.4769474948198</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>138.5362115105049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>86.4204102339333</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T11" t="n">
         <v>218.674275242386</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41.48542603606898</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1457,13 +1457,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>92.59194012706968</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>66.60350559207137</v>
+        <v>66.60350559207139</v>
       </c>
       <c r="S12" t="n">
         <v>161.6448423772186</v>
@@ -1505,7 +1505,7 @@
         <v>197.9863995095175</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9058271976456</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1581,16 +1581,16 @@
         <v>216.1206161765721</v>
       </c>
       <c r="T13" t="n">
-        <v>226.0096940321479</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>38.21363194781048</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>264.2233259799584</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>86.42041023393332</v>
       </c>
       <c r="S14" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U14" t="n">
-        <v>33.23838164174153</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>170.8421121072537</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1694,10 +1694,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>94.93446089871446</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>161.6448423772186</v>
       </c>
       <c r="T15" t="n">
         <v>197.9863995095175</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>126.3964462367828</v>
       </c>
     </row>
     <row r="16">
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>193.8209438199395</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>166.6631584113338</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>125.7975156448784</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>86.42041023393331</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>74.46303422189305</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1931,16 +1931,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>78.35883091487935</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>22.39236278253474</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>197.9863995095175</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9058271976456</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>141.8250664795777</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>52.22455987871051</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>286.2943157982424</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>47.61566371171899</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>85.20886555991187</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>160.6277566519369</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2162,19 +2162,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>47.6607413745174</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>66.6035055920714</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>161.6448423772187</v>
+        <v>161.6448423772186</v>
       </c>
       <c r="T21" t="n">
-        <v>197.9863995095175</v>
+        <v>121.0760031402509</v>
       </c>
       <c r="U21" t="n">
         <v>225.9058271976456</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>216.1206161765721</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.0096940321479</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>38.21363194781048</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>193.8209438199395</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2335,7 +2335,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>311.4936872159394</v>
+        <v>225.4603876057576</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2405,7 +2405,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554002</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2414,7 +2414,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I24" t="n">
         <v>61.42221998250818</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>269.8854510154497</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>98.77920426633925</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
@@ -2575,7 +2575,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>333.0858266775315</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T27" t="n">
         <v>196.8897623984489</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2757,25 +2757,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>54.47555601903363</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>107.5648922361045</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>321.5584859445102</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>266.6910260201686</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>397.6290279809137</v>
+        <v>101.8825978425036</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>129.6781866221426</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>156.1271626621467</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>153.5271835984415</v>
+        <v>199.4782993751476</v>
       </c>
     </row>
     <row r="36">
@@ -3359,7 +3359,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
         <v>104.3883541553076</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>83.59830597394826</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>275.0992346450739</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>33.3373484975798</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>53.36157631716215</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I39" t="n">
         <v>61.42221998250818</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>62.34212692452515</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>22.75446130335963</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>345.1345352866094</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>41.81485072602715</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>157.0044783406138</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>67.65349471023495</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3979,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>47.83175962070938</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>371.1796963936544</v>
       </c>
     </row>
     <row r="45">
@@ -4064,7 +4064,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554002</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>129.6781866221427</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>168.7756050755991</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132.7447050367114</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C2" t="n">
-        <v>132.7447050367114</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D2" t="n">
-        <v>132.7447050367114</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E2" t="n">
-        <v>132.7447050367114</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4357,25 +4357,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T2" t="n">
-        <v>376.1934816808115</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U2" t="n">
-        <v>376.1934816808115</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V2" t="n">
-        <v>132.7447050367114</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W2" t="n">
-        <v>132.7447050367114</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X2" t="n">
-        <v>132.7447050367114</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>132.7447050367114</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>787.171420448546</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="C6" t="n">
-        <v>612.718391167419</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="D6" t="n">
-        <v>463.7839815061678</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="E6" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
         <v>19.28114311021272</v>
@@ -4652,19 +4652,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y6" t="n">
-        <v>955.386757468614</v>
+        <v>102.8099852548154</v>
       </c>
     </row>
     <row r="7">
@@ -4743,16 +4743,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
         <v>19.28114311021272</v>
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4895,7 +4895,7 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4916,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>485.4562706347935</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>277.6047704292607</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4995,19 +4995,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.18787671600102</v>
+        <v>1347.860118226593</v>
       </c>
       <c r="C11" t="n">
-        <v>42.18787671600102</v>
+        <v>978.897601286181</v>
       </c>
       <c r="D11" t="n">
-        <v>42.18787671600102</v>
+        <v>978.897601286181</v>
       </c>
       <c r="E11" t="n">
-        <v>42.18787671600102</v>
+        <v>593.1093486879367</v>
       </c>
       <c r="F11" t="n">
-        <v>42.18787671600102</v>
+        <v>182.1234438983292</v>
       </c>
       <c r="G11" t="n">
-        <v>42.18787671600102</v>
+        <v>182.1234438983292</v>
       </c>
       <c r="H11" t="n">
-        <v>42.18787671600102</v>
+        <v>182.1234438983292</v>
       </c>
       <c r="I11" t="n">
         <v>42.18787671600102</v>
       </c>
       <c r="J11" t="n">
-        <v>115.2290882856225</v>
+        <v>115.2290882856227</v>
       </c>
       <c r="K11" t="n">
         <v>345.4437346953284</v>
       </c>
       <c r="L11" t="n">
-        <v>683.3219880803409</v>
+        <v>683.3219880803408</v>
       </c>
       <c r="M11" t="n">
         <v>1075.883192613821</v>
@@ -5065,28 +5065,28 @@
         <v>2109.393835800051</v>
       </c>
       <c r="R11" t="n">
-        <v>2022.100492129411</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S11" t="n">
-        <v>2022.100492129411</v>
+        <v>1921.511879802147</v>
       </c>
       <c r="T11" t="n">
-        <v>1801.217385823971</v>
+        <v>1700.628773496707</v>
       </c>
       <c r="U11" t="n">
-        <v>1801.217385823971</v>
+        <v>1700.628773496707</v>
       </c>
       <c r="V11" t="n">
-        <v>1470.1544984804</v>
+        <v>1700.628773496707</v>
       </c>
       <c r="W11" t="n">
-        <v>1117.385843210286</v>
+        <v>1347.860118226593</v>
       </c>
       <c r="X11" t="n">
-        <v>743.9200849492065</v>
+        <v>1347.860118226593</v>
       </c>
       <c r="Y11" t="n">
-        <v>353.7807529733948</v>
+        <v>1347.860118226593</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>503.7602479175777</v>
+        <v>605.6370858810596</v>
       </c>
       <c r="C12" t="n">
-        <v>329.3072186364506</v>
+        <v>431.1840565999327</v>
       </c>
       <c r="D12" t="n">
-        <v>180.3728089751993</v>
+        <v>282.2496469386814</v>
       </c>
       <c r="E12" t="n">
-        <v>180.3728089751993</v>
+        <v>188.7224346891161</v>
       </c>
       <c r="F12" t="n">
-        <v>180.3728089751993</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G12" t="n">
         <v>42.18787671600102</v>
@@ -5120,25 +5120,25 @@
         <v>42.18787671600102</v>
       </c>
       <c r="J12" t="n">
-        <v>91.99734226147164</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K12" t="n">
-        <v>91.99734226147164</v>
+        <v>162.8271385329672</v>
       </c>
       <c r="L12" t="n">
-        <v>438.129985077913</v>
+        <v>508.9597813494086</v>
       </c>
       <c r="M12" t="n">
-        <v>894.0296748629685</v>
+        <v>964.859471134464</v>
       </c>
       <c r="N12" t="n">
-        <v>1377.702686252226</v>
+        <v>1448.532482523722</v>
       </c>
       <c r="O12" t="n">
-        <v>1753.753320229596</v>
+        <v>1824.583116501092</v>
       </c>
       <c r="P12" t="n">
-        <v>1971.703181875404</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="Q12" t="n">
         <v>2109.393835800051</v>
@@ -5153,19 +5153,19 @@
         <v>1678.853686831559</v>
       </c>
       <c r="U12" t="n">
-        <v>1450.665982591513</v>
+        <v>1678.853686831559</v>
       </c>
       <c r="V12" t="n">
-        <v>1215.51387435977</v>
+        <v>1443.701578599816</v>
       </c>
       <c r="W12" t="n">
-        <v>961.2765176315684</v>
+        <v>1189.464221871614</v>
       </c>
       <c r="X12" t="n">
-        <v>753.4250174260355</v>
+        <v>981.6127216660816</v>
       </c>
       <c r="Y12" t="n">
-        <v>545.6647186610817</v>
+        <v>773.8524229011277</v>
       </c>
     </row>
     <row r="13">
@@ -5229,13 +5229,13 @@
         <v>309.0801251806055</v>
       </c>
       <c r="T13" t="n">
-        <v>80.78750494611262</v>
+        <v>309.0801251806055</v>
       </c>
       <c r="U13" t="n">
-        <v>42.18787671600102</v>
+        <v>309.0801251806055</v>
       </c>
       <c r="V13" t="n">
-        <v>42.18787671600102</v>
+        <v>309.0801251806055</v>
       </c>
       <c r="W13" t="n">
         <v>42.18787671600102</v>
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1204.106214318017</v>
+        <v>984.7073876411853</v>
       </c>
       <c r="C14" t="n">
-        <v>1204.106214318017</v>
+        <v>984.7073876411853</v>
       </c>
       <c r="D14" t="n">
-        <v>1204.106214318017</v>
+        <v>626.4416890344348</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.106214318017</v>
+        <v>626.4416890344348</v>
       </c>
       <c r="F14" t="n">
-        <v>793.1203095284093</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="G14" t="n">
-        <v>374.642865954865</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="H14" t="n">
-        <v>42.18787671600103</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="I14" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J14" t="n">
-        <v>115.2290882856225</v>
+        <v>115.2290882856226</v>
       </c>
       <c r="K14" t="n">
         <v>345.4437346953284</v>
       </c>
       <c r="L14" t="n">
-        <v>683.3219880803409</v>
+        <v>683.3219880803408</v>
       </c>
       <c r="M14" t="n">
         <v>1075.883192613821</v>
@@ -5293,37 +5293,37 @@
         <v>1460.164450300943</v>
       </c>
       <c r="O14" t="n">
-        <v>1777.842707170708</v>
+        <v>1777.842707170707</v>
       </c>
       <c r="P14" t="n">
-        <v>2011.299366755287</v>
+        <v>2011.299366755286</v>
       </c>
       <c r="Q14" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R14" t="n">
-        <v>2109.393835800051</v>
+        <v>2022.100492129411</v>
       </c>
       <c r="S14" t="n">
-        <v>1921.511879802148</v>
+        <v>2022.100492129411</v>
       </c>
       <c r="T14" t="n">
-        <v>1921.511879802148</v>
+        <v>1801.217385823971</v>
       </c>
       <c r="U14" t="n">
-        <v>1887.937756931702</v>
+        <v>1547.414509624324</v>
       </c>
       <c r="V14" t="n">
-        <v>1556.874869588131</v>
+        <v>1547.414509624324</v>
       </c>
       <c r="W14" t="n">
-        <v>1204.106214318017</v>
+        <v>1374.846719616997</v>
       </c>
       <c r="X14" t="n">
-        <v>1204.106214318017</v>
+        <v>1374.846719616997</v>
       </c>
       <c r="Y14" t="n">
-        <v>1204.106214318017</v>
+        <v>984.7073876411853</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>608.0032684786806</v>
+        <v>524.8127706638348</v>
       </c>
       <c r="C15" t="n">
-        <v>433.5502391975537</v>
+        <v>350.3597413827078</v>
       </c>
       <c r="D15" t="n">
-        <v>284.6158295363024</v>
+        <v>201.4253317214565</v>
       </c>
       <c r="E15" t="n">
-        <v>188.7224346891161</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="F15" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G15" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H15" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I15" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J15" t="n">
-        <v>91.99734226147166</v>
+        <v>91.99734226147163</v>
       </c>
       <c r="K15" t="n">
         <v>303.7504955284376</v>
       </c>
       <c r="L15" t="n">
-        <v>508.959781349409</v>
+        <v>649.8831383448789</v>
       </c>
       <c r="M15" t="n">
-        <v>964.8594711344645</v>
+        <v>1105.782828129934</v>
       </c>
       <c r="N15" t="n">
-        <v>1448.532482523722</v>
+        <v>1310.841828599075</v>
       </c>
       <c r="O15" t="n">
-        <v>1824.583116501092</v>
+        <v>1686.892462576445</v>
       </c>
       <c r="P15" t="n">
-        <v>2109.393835800051</v>
+        <v>1971.703181875404</v>
       </c>
       <c r="Q15" t="n">
         <v>2109.393835800051</v>
@@ -5384,25 +5384,25 @@
         <v>2109.393835800051</v>
       </c>
       <c r="S15" t="n">
-        <v>2109.393835800051</v>
+        <v>1946.116217237204</v>
       </c>
       <c r="T15" t="n">
-        <v>1909.407573669226</v>
+        <v>1746.129955106378</v>
       </c>
       <c r="U15" t="n">
-        <v>1681.21986942918</v>
+        <v>1517.942250866332</v>
       </c>
       <c r="V15" t="n">
-        <v>1446.067761197437</v>
+        <v>1282.79014263459</v>
       </c>
       <c r="W15" t="n">
-        <v>1191.830404469235</v>
+        <v>1028.552785906388</v>
       </c>
       <c r="X15" t="n">
-        <v>983.9789042637026</v>
+        <v>820.7012857008551</v>
       </c>
       <c r="Y15" t="n">
-        <v>776.2186054987487</v>
+        <v>693.0281076839028</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>359.037153226301</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="C16" t="n">
-        <v>190.1009702983941</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="D16" t="n">
-        <v>190.1009702983941</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="E16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="F16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K16" t="n">
-        <v>72.25456008701801</v>
+        <v>72.25456008701798</v>
       </c>
       <c r="L16" t="n">
-        <v>166.2559978081031</v>
+        <v>166.255997808103</v>
       </c>
       <c r="M16" t="n">
-        <v>275.7564570053806</v>
+        <v>275.7564570053805</v>
       </c>
       <c r="N16" t="n">
-        <v>388.0878564503603</v>
+        <v>388.0878564503602</v>
       </c>
       <c r="O16" t="n">
-        <v>475.8277896871618</v>
+        <v>475.8277896871617</v>
       </c>
       <c r="P16" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="Q16" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="R16" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="S16" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="T16" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="U16" t="n">
-        <v>527.3837778842139</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="V16" t="n">
-        <v>527.3837778842139</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="W16" t="n">
-        <v>527.3837778842139</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="X16" t="n">
-        <v>359.037153226301</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="Y16" t="n">
-        <v>359.037153226301</v>
+        <v>42.18787671600102</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1257.439477677397</v>
+        <v>1282.272542482497</v>
       </c>
       <c r="C17" t="n">
-        <v>1257.439477677397</v>
+        <v>913.310025542085</v>
       </c>
       <c r="D17" t="n">
-        <v>1257.439477677397</v>
+        <v>555.0443269353345</v>
       </c>
       <c r="E17" t="n">
-        <v>871.6512250791529</v>
+        <v>169.2560743370903</v>
       </c>
       <c r="F17" t="n">
-        <v>460.6653202895453</v>
+        <v>169.2560743370903</v>
       </c>
       <c r="G17" t="n">
-        <v>42.18787671600102</v>
+        <v>169.2560743370903</v>
       </c>
       <c r="H17" t="n">
         <v>42.18787671600102</v>
@@ -5518,10 +5518,10 @@
         <v>115.2290882856225</v>
       </c>
       <c r="K17" t="n">
-        <v>345.4437346953284</v>
+        <v>345.4437346953282</v>
       </c>
       <c r="L17" t="n">
-        <v>683.3219880803409</v>
+        <v>683.3219880803408</v>
       </c>
       <c r="M17" t="n">
         <v>1075.883192613821</v>
@@ -5539,28 +5539,28 @@
         <v>2109.393835800051</v>
       </c>
       <c r="R17" t="n">
-        <v>2109.393835800051</v>
+        <v>2022.100492129411</v>
       </c>
       <c r="S17" t="n">
-        <v>2109.393835800051</v>
+        <v>1834.218536131508</v>
       </c>
       <c r="T17" t="n">
-        <v>2109.393835800051</v>
+        <v>1613.335429826067</v>
       </c>
       <c r="U17" t="n">
-        <v>2109.393835800051</v>
+        <v>1613.335429826067</v>
       </c>
       <c r="V17" t="n">
-        <v>2109.393835800051</v>
+        <v>1282.272542482497</v>
       </c>
       <c r="W17" t="n">
-        <v>2109.393835800051</v>
+        <v>1282.272542482497</v>
       </c>
       <c r="X17" t="n">
-        <v>2034.178649717331</v>
+        <v>1282.272542482497</v>
       </c>
       <c r="Y17" t="n">
-        <v>1644.039317741519</v>
+        <v>1282.272542482497</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>672.9133541558792</v>
+        <v>444.7256499158332</v>
       </c>
       <c r="C18" t="n">
-        <v>498.4603248747522</v>
+        <v>270.2726206347062</v>
       </c>
       <c r="D18" t="n">
-        <v>349.525915213501</v>
+        <v>121.3382109734549</v>
       </c>
       <c r="E18" t="n">
-        <v>349.525915213501</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="F18" t="n">
-        <v>202.991357240386</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G18" t="n">
-        <v>64.80642498118763</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H18" t="n">
         <v>42.18787671600102</v>
@@ -5594,22 +5594,22 @@
         <v>42.18787671600102</v>
       </c>
       <c r="J18" t="n">
-        <v>91.99734226147164</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K18" t="n">
-        <v>303.7504955284376</v>
+        <v>162.8271385329672</v>
       </c>
       <c r="L18" t="n">
-        <v>649.8831383448789</v>
+        <v>508.9597813494086</v>
       </c>
       <c r="M18" t="n">
-        <v>1105.782828129934</v>
+        <v>964.859471134464</v>
       </c>
       <c r="N18" t="n">
-        <v>1589.455839519192</v>
+        <v>1448.532482523722</v>
       </c>
       <c r="O18" t="n">
-        <v>1965.506473496562</v>
+        <v>1824.583116501092</v>
       </c>
       <c r="P18" t="n">
         <v>2109.393835800051</v>
@@ -5627,19 +5627,19 @@
         <v>1746.129955106378</v>
       </c>
       <c r="U18" t="n">
-        <v>1746.129955106378</v>
+        <v>1517.942250866332</v>
       </c>
       <c r="V18" t="n">
-        <v>1510.977846874636</v>
+        <v>1282.79014263459</v>
       </c>
       <c r="W18" t="n">
-        <v>1256.740490146434</v>
+        <v>1028.552785906388</v>
       </c>
       <c r="X18" t="n">
-        <v>1048.888989940901</v>
+        <v>820.7012857008551</v>
       </c>
       <c r="Y18" t="n">
-        <v>841.1286911759473</v>
+        <v>612.9409869359013</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.4455196246654</v>
+        <v>190.1009702983941</v>
       </c>
       <c r="C19" t="n">
-        <v>185.4455196246654</v>
+        <v>190.1009702983941</v>
       </c>
       <c r="D19" t="n">
-        <v>185.4455196246654</v>
+        <v>190.1009702983941</v>
       </c>
       <c r="E19" t="n">
-        <v>185.4455196246654</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="F19" t="n">
-        <v>185.4455196246654</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G19" t="n">
-        <v>185.4455196246654</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H19" t="n">
-        <v>185.4455196246654</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I19" t="n">
         <v>42.18787671600102</v>
@@ -5700,25 +5700,25 @@
         <v>527.3837778842137</v>
       </c>
       <c r="S19" t="n">
-        <v>474.6316971986475</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="T19" t="n">
-        <v>474.6316971986475</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="U19" t="n">
-        <v>185.4455196246654</v>
+        <v>238.1976003102315</v>
       </c>
       <c r="V19" t="n">
-        <v>185.4455196246654</v>
+        <v>190.1009702983941</v>
       </c>
       <c r="W19" t="n">
-        <v>185.4455196246654</v>
+        <v>190.1009702983941</v>
       </c>
       <c r="X19" t="n">
-        <v>185.4455196246654</v>
+        <v>190.1009702983941</v>
       </c>
       <c r="Y19" t="n">
-        <v>185.4455196246654</v>
+        <v>190.1009702983941</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>957.720786250781</v>
+        <v>796.938646254657</v>
       </c>
       <c r="C20" t="n">
-        <v>957.720786250781</v>
+        <v>427.9761293142453</v>
       </c>
       <c r="D20" t="n">
-        <v>957.720786250781</v>
+        <v>427.9761293142453</v>
       </c>
       <c r="E20" t="n">
-        <v>957.720786250781</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="F20" t="n">
-        <v>546.7348814611735</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G20" t="n">
-        <v>128.2574378876292</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H20" t="n">
         <v>42.18787671600102</v>
@@ -5752,13 +5752,13 @@
         <v>42.18787671600102</v>
       </c>
       <c r="J20" t="n">
-        <v>115.2290882856225</v>
+        <v>115.2290882856227</v>
       </c>
       <c r="K20" t="n">
         <v>345.4437346953284</v>
       </c>
       <c r="L20" t="n">
-        <v>683.3219880803408</v>
+        <v>683.3219880803409</v>
       </c>
       <c r="M20" t="n">
         <v>1075.883192613821</v>
@@ -5779,25 +5779,25 @@
         <v>2109.393835800051</v>
       </c>
       <c r="S20" t="n">
-        <v>1921.511879802147</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T20" t="n">
-        <v>1700.628773496707</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="U20" t="n">
-        <v>1700.628773496707</v>
+        <v>1947.14357655567</v>
       </c>
       <c r="V20" t="n">
-        <v>1700.628773496707</v>
+        <v>1947.14357655567</v>
       </c>
       <c r="W20" t="n">
-        <v>1347.860118226593</v>
+        <v>1947.14357655567</v>
       </c>
       <c r="X20" t="n">
-        <v>1347.860118226593</v>
+        <v>1573.67781829459</v>
       </c>
       <c r="Y20" t="n">
-        <v>957.720786250781</v>
+        <v>1183.538486318779</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>377.4493816410136</v>
+        <v>522.4129189756985</v>
       </c>
       <c r="C21" t="n">
-        <v>377.4493816410136</v>
+        <v>347.9598896945715</v>
       </c>
       <c r="D21" t="n">
-        <v>228.5149719797624</v>
+        <v>347.9598896945715</v>
       </c>
       <c r="E21" t="n">
-        <v>180.3728089751993</v>
+        <v>188.7224346891161</v>
       </c>
       <c r="F21" t="n">
-        <v>180.3728089751993</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G21" t="n">
         <v>42.18787671600102</v>
@@ -5834,49 +5834,49 @@
         <v>42.18787671600102</v>
       </c>
       <c r="K21" t="n">
-        <v>162.8271385329674</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9597813494087</v>
+        <v>371.2691274247618</v>
       </c>
       <c r="M21" t="n">
-        <v>964.8594711344641</v>
+        <v>827.1688172098172</v>
       </c>
       <c r="N21" t="n">
-        <v>1448.532482523722</v>
+        <v>1310.841828599075</v>
       </c>
       <c r="O21" t="n">
-        <v>1824.583116501092</v>
+        <v>1686.892462576445</v>
       </c>
       <c r="P21" t="n">
-        <v>2109.393835800051</v>
+        <v>1971.703181875404</v>
       </c>
       <c r="Q21" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R21" t="n">
-        <v>2042.117567525231</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S21" t="n">
-        <v>1878.839948962384</v>
+        <v>1946.116217237204</v>
       </c>
       <c r="T21" t="n">
-        <v>1678.853686831559</v>
+        <v>1823.817224166243</v>
       </c>
       <c r="U21" t="n">
-        <v>1450.665982591513</v>
+        <v>1595.629519926197</v>
       </c>
       <c r="V21" t="n">
-        <v>1215.51387435977</v>
+        <v>1360.477411694455</v>
       </c>
       <c r="W21" t="n">
-        <v>961.2765176315684</v>
+        <v>1106.240054966253</v>
       </c>
       <c r="X21" t="n">
-        <v>753.4250174260355</v>
+        <v>898.3885547607204</v>
       </c>
       <c r="Y21" t="n">
-        <v>545.6647186610817</v>
+        <v>690.6282559957665</v>
       </c>
     </row>
     <row r="22">
@@ -5913,7 +5913,7 @@
         <v>42.18787671600102</v>
       </c>
       <c r="K22" t="n">
-        <v>72.25456008701798</v>
+        <v>72.25456008701799</v>
       </c>
       <c r="L22" t="n">
         <v>166.255997808103</v>
@@ -5937,19 +5937,19 @@
         <v>527.3837778842137</v>
       </c>
       <c r="S22" t="n">
-        <v>527.3837778842137</v>
+        <v>309.0801251806055</v>
       </c>
       <c r="T22" t="n">
-        <v>527.3837778842137</v>
+        <v>80.78750494611262</v>
       </c>
       <c r="U22" t="n">
-        <v>527.3837778842137</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="V22" t="n">
-        <v>527.3837778842137</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="W22" t="n">
-        <v>237.9666078472531</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="X22" t="n">
         <v>42.18787671600102</v>
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2310.5492509541</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C23" t="n">
-        <v>1941.586734013688</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D23" t="n">
-        <v>1583.321035406938</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="E23" t="n">
-        <v>1197.532782808694</v>
+        <v>1110.630459970126</v>
       </c>
       <c r="F23" t="n">
-        <v>786.5468780190861</v>
+        <v>699.6445551805186</v>
       </c>
       <c r="G23" t="n">
-        <v>368.583069917273</v>
+        <v>281.6807470787055</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y23" t="n">
-        <v>2697.149091018222</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6107,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C25" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D25" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E25" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6180,19 +6180,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>455.5174175241617</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V25" t="n">
-        <v>200.8329293182748</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W25" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X25" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>952.5674858910851</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="C26" t="n">
-        <v>952.5674858910851</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="D26" t="n">
-        <v>952.5674858910851</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="E26" t="n">
-        <v>952.5674858910851</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="F26" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6265,13 +6265,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W26" t="n">
-        <v>1326.033244152165</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X26" t="n">
-        <v>952.5674858910851</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y26" t="n">
-        <v>952.5674858910851</v>
+        <v>898.8784838925781</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6332,16 +6332,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F28" t="n">
         <v>53.94298182036445</v>
@@ -6405,31 +6405,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1577.945354755378</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="C29" t="n">
-        <v>1208.982837814967</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="D29" t="n">
-        <v>850.7171392082162</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E29" t="n">
-        <v>464.928886609972</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6466,16 +6466,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6496,19 +6496,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V29" t="n">
-        <v>2317.313850089614</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W29" t="n">
-        <v>1964.5451948195</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X29" t="n">
-        <v>1964.5451948195</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y29" t="n">
-        <v>1964.5451948195</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="30">
@@ -6524,10 +6524,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
         <v>359.3385232961342</v>
@@ -6536,7 +6536,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
@@ -6554,13 +6554,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
         <v>53.94298182036445</v>
@@ -6654,19 +6654,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>458.7441094385871</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>204.0596212327002</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W31" t="n">
-        <v>204.0596212327002</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X31" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>936.2491605982757</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="C32" t="n">
-        <v>936.2491605982757</v>
+        <v>995.7810913884502</v>
       </c>
       <c r="D32" t="n">
-        <v>936.2491605982757</v>
+        <v>637.5153927816998</v>
       </c>
       <c r="E32" t="n">
-        <v>936.2491605982757</v>
+        <v>637.5153927816998</v>
       </c>
       <c r="F32" t="n">
-        <v>936.2491605982757</v>
+        <v>637.5153927816998</v>
       </c>
       <c r="G32" t="n">
         <v>534.603677789272</v>
@@ -6703,16 +6703,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W32" t="n">
-        <v>1309.714918859356</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X32" t="n">
-        <v>936.2491605982757</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y32" t="n">
-        <v>936.2491605982757</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="33">
@@ -6758,19 +6758,19 @@
         <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
@@ -6779,25 +6779,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>597.1409169113407</v>
       </c>
       <c r="T34" t="n">
-        <v>2469.840903686824</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="U34" t="n">
-        <v>2180.667293341392</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="V34" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>781.1711973675267</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="C35" t="n">
-        <v>412.2086804271149</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D35" t="n">
-        <v>53.94298182036445</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E35" t="n">
         <v>53.94298182036445</v>
@@ -6943,13 +6943,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.48357412947</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W35" t="n">
-        <v>1309.714918859356</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X35" t="n">
-        <v>936.2491605982757</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y35" t="n">
-        <v>781.1711973675267</v>
+        <v>1184.596773089481</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424006</v>
@@ -7040,19 +7040,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2334.714009270569</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2107.405821939171</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U37" t="n">
-        <v>2022.963088632153</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V37" t="n">
-        <v>2022.963088632153</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W37" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X37" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>945.5895825788796</v>
+        <v>1611.619444146873</v>
       </c>
       <c r="C38" t="n">
-        <v>945.5895825788796</v>
+        <v>1242.656927206461</v>
       </c>
       <c r="D38" t="n">
-        <v>945.5895825788796</v>
+        <v>884.391228599711</v>
       </c>
       <c r="E38" t="n">
-        <v>945.5895825788796</v>
+        <v>498.6029760014667</v>
       </c>
       <c r="F38" t="n">
-        <v>534.603677789272</v>
+        <v>87.61707121185918</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T38" t="n">
-        <v>2643.248508879675</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U38" t="n">
-        <v>2389.486723517766</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V38" t="n">
-        <v>2058.423836174195</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W38" t="n">
-        <v>1705.655180904081</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X38" t="n">
-        <v>1332.189422643001</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y38" t="n">
-        <v>1332.189422643001</v>
+        <v>1998.219284210995</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7262,16 +7262,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2519.585513306029</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="C40" t="n">
-        <v>2519.585513306029</v>
+        <v>116.9148271986727</v>
       </c>
       <c r="D40" t="n">
-        <v>2519.585513306029</v>
+        <v>116.9148271986727</v>
       </c>
       <c r="E40" t="n">
-        <v>2519.585513306029</v>
+        <v>116.9148271986727</v>
       </c>
       <c r="F40" t="n">
-        <v>2372.695565808118</v>
+        <v>116.9148271986727</v>
       </c>
       <c r="G40" t="n">
-        <v>2203.695765546451</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>2045.947392978981</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>2519.585513306029</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T40" t="n">
-        <v>2519.585513306029</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U40" t="n">
-        <v>2519.585513306029</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V40" t="n">
-        <v>2519.585513306029</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W40" t="n">
-        <v>2519.585513306029</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X40" t="n">
-        <v>2519.585513306029</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="Y40" t="n">
-        <v>2519.585513306029</v>
+        <v>285.8510101265796</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1584.923258067584</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="C41" t="n">
-        <v>1215.960741127172</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="D41" t="n">
-        <v>857.6950425204218</v>
+        <v>1380.592961444912</v>
       </c>
       <c r="E41" t="n">
-        <v>471.9067899221776</v>
+        <v>994.8047088466681</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533141</v>
@@ -7417,7 +7417,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7444,19 +7444,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>1738.858660051663</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7502,31 +7502,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2180.711461199623</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C43" t="n">
-        <v>2180.711461199623</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="D43" t="n">
-        <v>2180.711461199623</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="E43" t="n">
-        <v>2180.711461199623</v>
+        <v>359.423311480511</v>
       </c>
       <c r="F43" t="n">
-        <v>2180.711461199623</v>
+        <v>212.5333639826006</v>
       </c>
       <c r="G43" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>2401.504040343153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>2401.504040343153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X43" t="n">
-        <v>2401.504040343153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y43" t="n">
-        <v>2180.711461199623</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1610.120910258947</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="C44" t="n">
-        <v>1241.158393318536</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D44" t="n">
-        <v>882.8926947117851</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036444</v>
@@ -7651,13 +7651,13 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N44" t="n">
         <v>1836.345445977174</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2648.834182310435</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2472.656694624605</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2254.022027596668</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2000.260242234759</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V44" t="n">
-        <v>2000.260242234759</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W44" t="n">
-        <v>2000.260242234759</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X44" t="n">
-        <v>2000.260242234759</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y44" t="n">
-        <v>1610.120910258947</v>
+        <v>1011.161018525332</v>
       </c>
     </row>
     <row r="45">
@@ -7712,40 +7712,40 @@
         <v>665.1105362747043</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036444</v>
@@ -7833,25 +7833,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>513.8405610245969</v>
+        <v>597.1409169113406</v>
       </c>
       <c r="T46" t="n">
-        <v>513.8405610245969</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="U46" t="n">
-        <v>343.360151857325</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799423</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,10 +8543,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>75.77844388033751</v>
       </c>
       <c r="K12" t="n">
-        <v>50.57316300554224</v>
+        <v>172.4310032247</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>250.9265487882693</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>70.99581912509471</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,13 +9011,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>228.4935200555097</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>197.9140804848494</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.9958191250947</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>75.77844388033751</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>172.4310032247</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>176.1159433919873</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.9958191250947</v>
+        <v>70.99581912509471</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>75.77844388033753</v>
+        <v>75.77844388033751</v>
       </c>
       <c r="K21" t="n">
-        <v>172.4310032247002</v>
+        <v>50.57316300554226</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>353.6167169118627</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.99581912509473</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10910,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711641</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747075</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>98.14696326317221</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22597,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>307.3148329761767</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22628,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22679,19 +22679,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22728,10 +22728,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,10 +22746,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22758,7 +22758,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,10 +22795,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22846,10 +22846,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22862,22 +22862,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>74.95152673224426</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22916,7 +22916,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22925,13 +22925,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>197.0990017157023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22983,19 +22983,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23074,10 +23074,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>31.13252716541155</v>
       </c>
       <c r="V8" t="n">
         <v>86.73796959247585</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>116.4754883813142</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23156,7 +23156,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="10">
@@ -23199,10 +23199,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74.25689416866078</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>414.2926691378088</v>
@@ -23278,7 +23278,7 @@
         <v>329.1304393464753</v>
       </c>
       <c r="I11" t="n">
-        <v>171.5352284535379</v>
+        <v>32.99901694303304</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>86.42041023393331</v>
       </c>
       <c r="S11" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>251.2648474376504</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>125.0477576137984</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23345,13 +23345,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>65.05314032833127</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H12" t="n">
         <v>107.0159873637655</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9058271976456</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.22261241385097</v>
+        <v>48.22261241385098</v>
       </c>
       <c r="R13" t="n">
         <v>156.9211815276446</v>
@@ -23469,16 +23469,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>226.0096940321479</v>
       </c>
       <c r="U13" t="n">
-        <v>248.0806838504319</v>
+        <v>286.2943157982424</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>22.29967235663264</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I14" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>86.4204102339333</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T14" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>218.0264657959088</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>178.3988566101594</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23582,10 +23582,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>62.71061955668648</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.8030829366063</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>66.60350559207137</v>
+        <v>66.60350559207139</v>
       </c>
       <c r="S15" t="n">
-        <v>161.6448423772186</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>79.28624954052158</v>
       </c>
     </row>
     <row r="16">
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.22261241385097</v>
+        <v>48.22261241385099</v>
       </c>
       <c r="R16" t="n">
         <v>156.9211815276446</v>
@@ -23709,16 +23709,16 @@
         <v>226.0096940321479</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2943157982424</v>
+        <v>92.47337197830285</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>59.04649697770338</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H17" t="n">
-        <v>329.1304393464753</v>
+        <v>203.3329237015969</v>
       </c>
       <c r="I17" t="n">
         <v>171.5352284535379</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.4204102339333</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2648474376504</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>295.268066456576</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23819,16 +23819,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>79.2862495405216</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H18" t="n">
-        <v>84.62362458123079</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I18" t="n">
         <v>70.78957724245151</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.60350559207137</v>
+        <v>66.60350559207139</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9058271976456</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>158.1988625129318</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>141.8250664795777</v>
       </c>
       <c r="J19" t="n">
         <v>61.32628970022417</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.22261241385097</v>
+        <v>48.22261241385098</v>
       </c>
       <c r="R19" t="n">
         <v>156.9211815276446</v>
       </c>
       <c r="S19" t="n">
-        <v>163.8960562978616</v>
+        <v>216.1206161765721</v>
       </c>
       <c r="T19" t="n">
         <v>226.0096940321479</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>204.521979612109</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9215737865634</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I20" t="n">
         <v>171.5352284535379</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>86.42041023393332</v>
+        <v>86.42041023393331</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2648474376504</v>
+        <v>90.63709078571353</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24050,19 +24050,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>109.9843390808835</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H21" t="n">
         <v>107.0159873637655</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>66.60350559207139</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>76.91039636926661</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J22" t="n">
-        <v>61.32628970022418</v>
+        <v>61.32628970022417</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,28 +24171,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.222612413851</v>
+        <v>48.22261241385098</v>
       </c>
       <c r="R22" t="n">
         <v>156.9211815276446</v>
       </c>
       <c r="S22" t="n">
-        <v>216.1206161765721</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>226.0096940321479</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2943157982424</v>
+        <v>248.0806838504319</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>31.88871156909761</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>12.42908554841773</v>
+        <v>98.46238515859952</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>61.53161905815483</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
@@ -24420,13 +24420,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>16.39642322652799</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24454,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>308.0968414753722</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>16.15514203988147</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>50.78177823929093</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24645,25 +24645,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>231.8063182229441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>247.1181493845784</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24736,10 +24736,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>6.193772525624695</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24894,16 +24894,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>19.5908482218091</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,10 +24919,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>16.1551420398813</v>
+        <v>311.9015721782914</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25125,16 +25125,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>82.46735232787634</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>96.0104806616813</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>232.7107550576121</v>
+        <v>186.759639280906</v>
       </c>
     </row>
     <row r="36">
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25359,22 +25359,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>202.6835682680295</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>11.42376369151714</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>380.4468215232152</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>163.0867440404956</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>104.9676753345258</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>112.2111604889786</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>45.199959188537</v>
@@ -25593,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>37.59930637687114</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>365.0611950156843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25684,10 +25684,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25794,22 +25794,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>10.30532391843713</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25839,13 +25839,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>184.484148613593</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25867,16 +25867,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>6.646642954102347</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>15.05824226239918</v>
       </c>
     </row>
     <row r="45">
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26073,19 +26073,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.46735232787623</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>117.5062691663786</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>448871.9956148849</v>
+        <v>448871.9956148848</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>654316.4802681413</v>
+        <v>654316.4802681411</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>654316.480268141</v>
+        <v>654316.4802681411</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>758313.1631806012</v>
+        <v>758313.1631806014</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>758313.1631806014</v>
+        <v>758313.1631806012</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>758313.1631806014</v>
+        <v>758313.1631806013</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>758313.1631806014</v>
+        <v>758313.1631806013</v>
       </c>
     </row>
     <row r="16">
@@ -26316,31 +26316,31 @@
         <v>166160.6725313324</v>
       </c>
       <c r="C2" t="n">
-        <v>166160.6725313323</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="D2" t="n">
-        <v>166160.6725313323</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="E2" t="n">
         <v>247828.6760862711</v>
       </c>
       <c r="F2" t="n">
-        <v>247828.6760862712</v>
+        <v>247828.6760862711</v>
       </c>
       <c r="G2" t="n">
-        <v>247828.676086271</v>
+        <v>247828.6760862711</v>
       </c>
       <c r="H2" t="n">
         <v>247828.6760862711</v>
       </c>
       <c r="I2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157573</v>
       </c>
       <c r="J2" t="n">
         <v>289152.6100157575</v>
       </c>
       <c r="K2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="L2" t="n">
         <v>289152.6100157574</v>
@@ -26349,7 +26349,7 @@
         <v>289152.6100157575</v>
       </c>
       <c r="N2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="O2" t="n">
         <v>289152.6100157574</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>287351.7100134256</v>
+        <v>287351.7100134255</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>134288.7015116922</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71355.62051871086</v>
+        <v>71355.62051871078</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26459,7 +26459,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="P4" t="n">
-        <v>35944.74664026682</v>
+        <v>35944.74664026681</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>37540.13459730638</v>
       </c>
       <c r="F5" t="n">
-        <v>37540.13459730639</v>
+        <v>37540.13459730638</v>
       </c>
       <c r="G5" t="n">
         <v>37540.13459730638</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3460.125451765278</v>
+        <v>-8757.885168275217</v>
       </c>
       <c r="C6" t="n">
-        <v>84229.55698331294</v>
+        <v>72011.5463632725</v>
       </c>
       <c r="D6" t="n">
-        <v>84229.55698331294</v>
+        <v>72011.54636327256</v>
       </c>
       <c r="E6" t="n">
-        <v>-112207.7219536458</v>
+        <v>-120342.3323959393</v>
       </c>
       <c r="F6" t="n">
-        <v>175143.9880597798</v>
+        <v>167009.3776174862</v>
       </c>
       <c r="G6" t="n">
-        <v>175143.9880597797</v>
+        <v>167009.3776174862</v>
       </c>
       <c r="H6" t="n">
-        <v>175143.9880597797</v>
+        <v>167009.3776174862</v>
       </c>
       <c r="I6" t="n">
-        <v>69687.68380038903</v>
+        <v>63619.27005456958</v>
       </c>
       <c r="J6" t="n">
-        <v>140916.442712975</v>
+        <v>134848.0289671558</v>
       </c>
       <c r="K6" t="n">
-        <v>203976.3853120813</v>
+        <v>197907.9715662622</v>
       </c>
       <c r="L6" t="n">
-        <v>203976.3853120811</v>
+        <v>197907.9715662619</v>
       </c>
       <c r="M6" t="n">
-        <v>132620.7647933703</v>
+        <v>126552.3510475512</v>
       </c>
       <c r="N6" t="n">
-        <v>203976.3853120812</v>
+        <v>197907.9715662621</v>
       </c>
       <c r="O6" t="n">
-        <v>203976.3853120811</v>
+        <v>197907.9715662619</v>
       </c>
       <c r="P6" t="n">
-        <v>203976.3853120812</v>
+        <v>197907.9715662619</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>251.2545088598901</v>
       </c>
       <c r="H3" t="n">
-        <v>251.25450885989</v>
+        <v>251.2545088598901</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26801,7 +26801,7 @@
         <v>527.3484589500127</v>
       </c>
       <c r="F4" t="n">
-        <v>527.3484589500129</v>
+        <v>527.3484589500127</v>
       </c>
       <c r="G4" t="n">
         <v>527.3484589500127</v>
@@ -26810,7 +26810,7 @@
         <v>527.3484589500127</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26825,10 +26825,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545555</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>146.9388138045427</v>
+        <v>146.9388138045429</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723538</v>
+        <v>286.3341700723535</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.010068377326191</v>
+        <v>1.01006837732619</v>
       </c>
       <c r="H11" t="n">
         <v>10.34436276929185</v>
       </c>
       <c r="I11" t="n">
-        <v>38.94066111686801</v>
+        <v>38.940661116868</v>
       </c>
       <c r="J11" t="n">
-        <v>85.72829094008885</v>
+        <v>85.72829094008884</v>
       </c>
       <c r="K11" t="n">
         <v>128.4844853523065</v>
       </c>
       <c r="L11" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549029</v>
       </c>
       <c r="M11" t="n">
         <v>177.3591689601776</v>
       </c>
       <c r="N11" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372556</v>
       </c>
       <c r="O11" t="n">
-        <v>170.1851583102184</v>
+        <v>170.1851583102183</v>
       </c>
       <c r="P11" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.0760214819838</v>
+        <v>109.0760214819837</v>
       </c>
       <c r="R11" t="n">
-        <v>63.44870770721639</v>
+        <v>63.44870770721637</v>
       </c>
       <c r="S11" t="n">
         <v>23.01693314832059</v>
@@ -31794,7 +31794,7 @@
         <v>4.421574321745402</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08080547018609524</v>
+        <v>0.08080547018609523</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,37 +31831,37 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.540434226604292</v>
+        <v>0.5404342266042919</v>
       </c>
       <c r="H12" t="n">
-        <v>5.219456872730926</v>
+        <v>5.219456872730925</v>
       </c>
       <c r="I12" t="n">
-        <v>18.60705560896357</v>
+        <v>18.60705560896356</v>
       </c>
       <c r="J12" t="n">
-        <v>51.0591827863292</v>
+        <v>51.05918278632918</v>
       </c>
       <c r="K12" t="n">
-        <v>87.26827596881675</v>
+        <v>87.26827596881674</v>
       </c>
       <c r="L12" t="n">
-        <v>117.3429666142346</v>
+        <v>117.3429666142345</v>
       </c>
       <c r="M12" t="n">
         <v>136.9337073286401</v>
       </c>
       <c r="N12" t="n">
-        <v>140.5579351026663</v>
+        <v>140.5579351026662</v>
       </c>
       <c r="O12" t="n">
         <v>128.5830503973817</v>
       </c>
       <c r="P12" t="n">
-        <v>103.199234025867</v>
+        <v>103.1992340258669</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.98595496092682</v>
+        <v>68.9859549609268</v>
       </c>
       <c r="R12" t="n">
         <v>33.55432856057175</v>
@@ -31873,7 +31873,7 @@
         <v>2.178329185304141</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03555488332922975</v>
+        <v>0.03555488332922974</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4530819012227527</v>
+        <v>0.4530819012227525</v>
       </c>
       <c r="H13" t="n">
-        <v>4.028309994507749</v>
+        <v>4.028309994507748</v>
       </c>
       <c r="I13" t="n">
         <v>13.6254084476806</v>
       </c>
       <c r="J13" t="n">
-        <v>32.03289041644861</v>
+        <v>32.0328904164486</v>
       </c>
       <c r="K13" t="n">
-        <v>52.63987906933434</v>
+        <v>52.63987906933433</v>
       </c>
       <c r="L13" t="n">
-        <v>67.36092193269907</v>
+        <v>67.36092193269906</v>
       </c>
       <c r="M13" t="n">
-        <v>71.02264747985384</v>
+        <v>71.02264747985383</v>
       </c>
       <c r="N13" t="n">
-        <v>69.33388766620546</v>
+        <v>69.33388766620544</v>
       </c>
       <c r="O13" t="n">
-        <v>64.04106727464874</v>
+        <v>64.04106727464873</v>
       </c>
       <c r="P13" t="n">
-        <v>54.79819648970454</v>
+        <v>54.79819648970452</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.93943083784341</v>
+        <v>37.9394308378434</v>
       </c>
       <c r="R13" t="n">
         <v>20.37220984952485</v>
       </c>
       <c r="S13" t="n">
-        <v>7.89598186040015</v>
+        <v>7.895981860400148</v>
       </c>
       <c r="T13" t="n">
         <v>1.935895396133579</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.0247135582485138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.010068377326191</v>
+        <v>1.01006837732619</v>
       </c>
       <c r="H14" t="n">
         <v>10.34436276929185</v>
       </c>
       <c r="I14" t="n">
-        <v>38.94066111686801</v>
+        <v>38.94066111686799</v>
       </c>
       <c r="J14" t="n">
-        <v>85.72829094008885</v>
+        <v>85.72829094008883</v>
       </c>
       <c r="K14" t="n">
         <v>128.4844853523065</v>
       </c>
       <c r="L14" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549029</v>
       </c>
       <c r="M14" t="n">
         <v>177.3591689601776</v>
       </c>
       <c r="N14" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372556</v>
       </c>
       <c r="O14" t="n">
-        <v>170.1851583102184</v>
+        <v>170.1851583102183</v>
       </c>
       <c r="P14" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q14" t="n">
-        <v>109.0760214819838</v>
+        <v>109.0760214819837</v>
       </c>
       <c r="R14" t="n">
-        <v>63.44870770721639</v>
+        <v>63.44870770721636</v>
       </c>
       <c r="S14" t="n">
         <v>23.01693314832059</v>
       </c>
       <c r="T14" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745401</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08080547018609524</v>
+        <v>0.08080547018609521</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,37 +32068,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.540434226604292</v>
+        <v>0.5404342266042919</v>
       </c>
       <c r="H15" t="n">
-        <v>5.219456872730926</v>
+        <v>5.219456872730924</v>
       </c>
       <c r="I15" t="n">
-        <v>18.60705560896357</v>
+        <v>18.60705560896356</v>
       </c>
       <c r="J15" t="n">
-        <v>51.0591827863292</v>
+        <v>51.05918278632917</v>
       </c>
       <c r="K15" t="n">
-        <v>87.26827596881675</v>
+        <v>87.26827596881672</v>
       </c>
       <c r="L15" t="n">
-        <v>117.3429666142346</v>
+        <v>117.3429666142345</v>
       </c>
       <c r="M15" t="n">
         <v>136.9337073286401</v>
       </c>
       <c r="N15" t="n">
-        <v>140.5579351026663</v>
+        <v>140.5579351026662</v>
       </c>
       <c r="O15" t="n">
         <v>128.5830503973817</v>
       </c>
       <c r="P15" t="n">
-        <v>103.199234025867</v>
+        <v>103.1992340258669</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.98595496092682</v>
+        <v>68.9859549609268</v>
       </c>
       <c r="R15" t="n">
         <v>33.55432856057175</v>
@@ -32107,10 +32107,10 @@
         <v>10.03832872661919</v>
       </c>
       <c r="T15" t="n">
-        <v>2.178329185304141</v>
+        <v>2.17832918530414</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03555488332922975</v>
+        <v>0.03555488332922974</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4530819012227527</v>
+        <v>0.4530819012227525</v>
       </c>
       <c r="H16" t="n">
-        <v>4.028309994507749</v>
+        <v>4.028309994507748</v>
       </c>
       <c r="I16" t="n">
         <v>13.6254084476806</v>
       </c>
       <c r="J16" t="n">
-        <v>32.03289041644861</v>
+        <v>32.0328904164486</v>
       </c>
       <c r="K16" t="n">
-        <v>52.63987906933434</v>
+        <v>52.63987906933433</v>
       </c>
       <c r="L16" t="n">
-        <v>67.36092193269907</v>
+        <v>67.36092193269906</v>
       </c>
       <c r="M16" t="n">
-        <v>71.02264747985384</v>
+        <v>71.02264747985382</v>
       </c>
       <c r="N16" t="n">
-        <v>69.33388766620546</v>
+        <v>69.33388766620544</v>
       </c>
       <c r="O16" t="n">
-        <v>64.04106727464874</v>
+        <v>64.04106727464871</v>
       </c>
       <c r="P16" t="n">
-        <v>54.79819648970454</v>
+        <v>54.79819648970452</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.93943083784341</v>
+        <v>37.9394308378434</v>
       </c>
       <c r="R16" t="n">
         <v>20.37220984952485</v>
       </c>
       <c r="S16" t="n">
-        <v>7.89598186040015</v>
+        <v>7.895981860400147</v>
       </c>
       <c r="T16" t="n">
-        <v>1.935895396133579</v>
+        <v>1.935895396133578</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.0247135582485138</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.010068377326191</v>
+        <v>1.01006837732619</v>
       </c>
       <c r="H17" t="n">
         <v>10.34436276929185</v>
       </c>
       <c r="I17" t="n">
-        <v>38.94066111686801</v>
+        <v>38.940661116868</v>
       </c>
       <c r="J17" t="n">
-        <v>85.72829094008885</v>
+        <v>85.72829094008884</v>
       </c>
       <c r="K17" t="n">
         <v>128.4844853523065</v>
       </c>
       <c r="L17" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549029</v>
       </c>
       <c r="M17" t="n">
         <v>177.3591689601776</v>
       </c>
       <c r="N17" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372556</v>
       </c>
       <c r="O17" t="n">
-        <v>170.1851583102184</v>
+        <v>170.1851583102183</v>
       </c>
       <c r="P17" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.0760214819838</v>
+        <v>109.0760214819837</v>
       </c>
       <c r="R17" t="n">
-        <v>63.44870770721639</v>
+        <v>63.44870770721637</v>
       </c>
       <c r="S17" t="n">
         <v>23.01693314832059</v>
@@ -32268,7 +32268,7 @@
         <v>4.421574321745402</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08080547018609524</v>
+        <v>0.08080547018609523</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,37 +32305,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.540434226604292</v>
+        <v>0.5404342266042919</v>
       </c>
       <c r="H18" t="n">
-        <v>5.219456872730926</v>
+        <v>5.219456872730925</v>
       </c>
       <c r="I18" t="n">
-        <v>18.60705560896357</v>
+        <v>18.60705560896356</v>
       </c>
       <c r="J18" t="n">
-        <v>51.0591827863292</v>
+        <v>51.05918278632918</v>
       </c>
       <c r="K18" t="n">
-        <v>87.26827596881675</v>
+        <v>87.26827596881674</v>
       </c>
       <c r="L18" t="n">
-        <v>117.3429666142346</v>
+        <v>117.3429666142345</v>
       </c>
       <c r="M18" t="n">
         <v>136.9337073286401</v>
       </c>
       <c r="N18" t="n">
-        <v>140.5579351026663</v>
+        <v>140.5579351026662</v>
       </c>
       <c r="O18" t="n">
         <v>128.5830503973817</v>
       </c>
       <c r="P18" t="n">
-        <v>103.199234025867</v>
+        <v>103.1992340258669</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.98595496092682</v>
+        <v>68.9859549609268</v>
       </c>
       <c r="R18" t="n">
         <v>33.55432856057175</v>
@@ -32347,7 +32347,7 @@
         <v>2.178329185304141</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03555488332922975</v>
+        <v>0.03555488332922974</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4530819012227527</v>
+        <v>0.4530819012227525</v>
       </c>
       <c r="H19" t="n">
-        <v>4.028309994507749</v>
+        <v>4.028309994507748</v>
       </c>
       <c r="I19" t="n">
         <v>13.6254084476806</v>
       </c>
       <c r="J19" t="n">
-        <v>32.03289041644861</v>
+        <v>32.0328904164486</v>
       </c>
       <c r="K19" t="n">
-        <v>52.63987906933434</v>
+        <v>52.63987906933433</v>
       </c>
       <c r="L19" t="n">
-        <v>67.36092193269907</v>
+        <v>67.36092193269906</v>
       </c>
       <c r="M19" t="n">
-        <v>71.02264747985384</v>
+        <v>71.02264747985383</v>
       </c>
       <c r="N19" t="n">
-        <v>69.33388766620546</v>
+        <v>69.33388766620544</v>
       </c>
       <c r="O19" t="n">
-        <v>64.04106727464874</v>
+        <v>64.04106727464873</v>
       </c>
       <c r="P19" t="n">
-        <v>54.79819648970454</v>
+        <v>54.79819648970452</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.93943083784341</v>
+        <v>37.9394308378434</v>
       </c>
       <c r="R19" t="n">
         <v>20.37220984952485</v>
       </c>
       <c r="S19" t="n">
-        <v>7.89598186040015</v>
+        <v>7.895981860400148</v>
       </c>
       <c r="T19" t="n">
         <v>1.935895396133579</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.0247135582485138</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,10 +32469,10 @@
         <v>10.34436276929185</v>
       </c>
       <c r="I20" t="n">
-        <v>38.94066111686799</v>
+        <v>38.940661116868</v>
       </c>
       <c r="J20" t="n">
-        <v>85.72829094008883</v>
+        <v>85.72829094008884</v>
       </c>
       <c r="K20" t="n">
         <v>128.4844853523065</v>
@@ -32481,7 +32481,7 @@
         <v>159.3963654549029</v>
       </c>
       <c r="M20" t="n">
-        <v>177.3591689601775</v>
+        <v>177.3591689601776</v>
       </c>
       <c r="N20" t="n">
         <v>180.2290257372556</v>
@@ -32490,22 +32490,22 @@
         <v>170.1851583102183</v>
       </c>
       <c r="P20" t="n">
-        <v>145.2490952449779</v>
+        <v>145.249095244978</v>
       </c>
       <c r="Q20" t="n">
         <v>109.0760214819837</v>
       </c>
       <c r="R20" t="n">
-        <v>63.44870770721636</v>
+        <v>63.44870770721637</v>
       </c>
       <c r="S20" t="n">
         <v>23.01693314832059</v>
       </c>
       <c r="T20" t="n">
-        <v>4.421574321745401</v>
+        <v>4.421574321745402</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08080547018609521</v>
+        <v>0.08080547018609523</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5404342266042917</v>
+        <v>0.5404342266042919</v>
       </c>
       <c r="H21" t="n">
-        <v>5.219456872730924</v>
+        <v>5.219456872730925</v>
       </c>
       <c r="I21" t="n">
         <v>18.60705560896356</v>
       </c>
       <c r="J21" t="n">
-        <v>51.05918278632917</v>
+        <v>51.05918278632918</v>
       </c>
       <c r="K21" t="n">
-        <v>87.26827596881671</v>
+        <v>87.26827596881674</v>
       </c>
       <c r="L21" t="n">
         <v>117.3429666142345</v>
@@ -32566,22 +32566,22 @@
         <v>140.5579351026662</v>
       </c>
       <c r="O21" t="n">
-        <v>128.5830503973816</v>
+        <v>128.5830503973817</v>
       </c>
       <c r="P21" t="n">
         <v>103.1992340258669</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.98595496092679</v>
+        <v>68.9859549609268</v>
       </c>
       <c r="R21" t="n">
-        <v>33.55432856057174</v>
+        <v>33.55432856057175</v>
       </c>
       <c r="S21" t="n">
-        <v>10.03832872661918</v>
+        <v>10.03832872661919</v>
       </c>
       <c r="T21" t="n">
-        <v>2.17832918530414</v>
+        <v>2.178329185304141</v>
       </c>
       <c r="U21" t="n">
         <v>0.03555488332922974</v>
@@ -32621,46 +32621,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4530819012227524</v>
+        <v>0.4530819012227525</v>
       </c>
       <c r="H22" t="n">
-        <v>4.028309994507747</v>
+        <v>4.028309994507748</v>
       </c>
       <c r="I22" t="n">
         <v>13.6254084476806</v>
       </c>
       <c r="J22" t="n">
-        <v>32.03289041644859</v>
+        <v>32.0328904164486</v>
       </c>
       <c r="K22" t="n">
-        <v>52.63987906933432</v>
+        <v>52.63987906933433</v>
       </c>
       <c r="L22" t="n">
-        <v>67.36092193269904</v>
+        <v>67.36092193269906</v>
       </c>
       <c r="M22" t="n">
-        <v>71.02264747985382</v>
+        <v>71.02264747985383</v>
       </c>
       <c r="N22" t="n">
-        <v>69.33388766620543</v>
+        <v>69.33388766620544</v>
       </c>
       <c r="O22" t="n">
-        <v>64.04106727464871</v>
+        <v>64.04106727464873</v>
       </c>
       <c r="P22" t="n">
-        <v>54.79819648970451</v>
+        <v>54.79819648970452</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.93943083784339</v>
+        <v>37.9394308378434</v>
       </c>
       <c r="R22" t="n">
         <v>20.37220984952485</v>
       </c>
       <c r="S22" t="n">
-        <v>7.895981860400147</v>
+        <v>7.895981860400148</v>
       </c>
       <c r="T22" t="n">
-        <v>1.935895396133578</v>
+        <v>1.935895396133579</v>
       </c>
       <c r="U22" t="n">
         <v>0.0247135582485138</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35020,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,10 +35263,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.77900158547634</v>
+        <v>73.77900158547632</v>
       </c>
       <c r="K11" t="n">
         <v>232.5400468784907</v>
       </c>
       <c r="L11" t="n">
-        <v>341.2911650353662</v>
+        <v>341.2911650353661</v>
       </c>
       <c r="M11" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257373</v>
       </c>
       <c r="N11" t="n">
-        <v>388.162886552649</v>
+        <v>388.1628865526488</v>
       </c>
       <c r="O11" t="n">
         <v>320.887128151277</v>
@@ -35430,7 +35430,7 @@
         <v>235.8148076611911</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.08532226743895</v>
+        <v>99.08532226743893</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>50.31259146007134</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>121.8578402191578</v>
       </c>
       <c r="L12" t="n">
-        <v>349.6289321378196</v>
+        <v>349.6289321378195</v>
       </c>
       <c r="M12" t="n">
         <v>460.5047371566217</v>
@@ -35506,10 +35506,10 @@
         <v>379.8491252296668</v>
       </c>
       <c r="P12" t="n">
-        <v>220.151375399806</v>
+        <v>287.6875952514739</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.0814686107544</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>30.37038724345149</v>
+        <v>30.37038724345148</v>
       </c>
       <c r="L13" t="n">
-        <v>94.95094719301521</v>
+        <v>94.9509471930152</v>
       </c>
       <c r="M13" t="n">
         <v>110.6065244416944</v>
@@ -35582,10 +35582,10 @@
         <v>113.466060045434</v>
       </c>
       <c r="O13" t="n">
-        <v>88.62619518868841</v>
+        <v>88.6261951886884</v>
       </c>
       <c r="P13" t="n">
-        <v>52.07675575459803</v>
+        <v>52.07675575459801</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.77900158547634</v>
+        <v>73.77900158547631</v>
       </c>
       <c r="K14" t="n">
         <v>232.5400468784907</v>
       </c>
       <c r="L14" t="n">
-        <v>341.2911650353662</v>
+        <v>341.2911650353661</v>
       </c>
       <c r="M14" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257373</v>
       </c>
       <c r="N14" t="n">
-        <v>388.162886552649</v>
+        <v>388.1628865526488</v>
       </c>
       <c r="O14" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512769</v>
       </c>
       <c r="P14" t="n">
         <v>235.8148076611911</v>
       </c>
       <c r="Q14" t="n">
-        <v>99.08532226743895</v>
+        <v>99.08532226743891</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>50.31259146007134</v>
+        <v>50.31259146007132</v>
       </c>
       <c r="K15" t="n">
         <v>213.8920740070363</v>
       </c>
       <c r="L15" t="n">
-        <v>207.2821068898701</v>
+        <v>349.6289321378195</v>
       </c>
       <c r="M15" t="n">
         <v>460.5047371566217</v>
       </c>
       <c r="N15" t="n">
-        <v>488.5585973628865</v>
+        <v>207.1303035041824</v>
       </c>
       <c r="O15" t="n">
         <v>379.8491252296668</v>
@@ -35746,7 +35746,7 @@
         <v>287.6875952514739</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>139.0814686107544</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.37038724345149</v>
+        <v>30.37038724345148</v>
       </c>
       <c r="L16" t="n">
-        <v>94.95094719301521</v>
+        <v>94.9509471930152</v>
       </c>
       <c r="M16" t="n">
         <v>110.6065244416944</v>
@@ -35819,10 +35819,10 @@
         <v>113.466060045434</v>
       </c>
       <c r="O16" t="n">
-        <v>88.62619518868841</v>
+        <v>88.62619518868838</v>
       </c>
       <c r="P16" t="n">
-        <v>52.07675575459803</v>
+        <v>52.076755754598</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.77900158547634</v>
+        <v>73.77900158547632</v>
       </c>
       <c r="K17" t="n">
         <v>232.5400468784907</v>
       </c>
       <c r="L17" t="n">
-        <v>341.2911650353662</v>
+        <v>341.2911650353661</v>
       </c>
       <c r="M17" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257373</v>
       </c>
       <c r="N17" t="n">
-        <v>388.162886552649</v>
+        <v>388.1628865526488</v>
       </c>
       <c r="O17" t="n">
         <v>320.887128151277</v>
@@ -35904,7 +35904,7 @@
         <v>235.8148076611911</v>
       </c>
       <c r="Q17" t="n">
-        <v>99.08532226743895</v>
+        <v>99.08532226743893</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>50.31259146007134</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>213.8920740070363</v>
+        <v>121.8578402191578</v>
       </c>
       <c r="L18" t="n">
-        <v>349.6289321378196</v>
+        <v>349.6289321378195</v>
       </c>
       <c r="M18" t="n">
         <v>460.5047371566217</v>
@@ -35980,7 +35980,7 @@
         <v>379.8491252296668</v>
       </c>
       <c r="P18" t="n">
-        <v>145.340770003524</v>
+        <v>287.6875952514739</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,10 +36044,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>30.37038724345149</v>
+        <v>30.37038724345148</v>
       </c>
       <c r="L19" t="n">
-        <v>94.95094719301521</v>
+        <v>94.9509471930152</v>
       </c>
       <c r="M19" t="n">
         <v>110.6065244416944</v>
@@ -36056,10 +36056,10 @@
         <v>113.466060045434</v>
       </c>
       <c r="O19" t="n">
-        <v>88.62619518868841</v>
+        <v>88.6261951886884</v>
       </c>
       <c r="P19" t="n">
-        <v>52.07675575459803</v>
+        <v>52.07675575459801</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.77900158547631</v>
+        <v>73.77900158547632</v>
       </c>
       <c r="K20" t="n">
         <v>232.5400468784907</v>
@@ -36135,13 +36135,13 @@
         <v>388.1628865526488</v>
       </c>
       <c r="O20" t="n">
-        <v>320.8871281512769</v>
+        <v>320.887128151277</v>
       </c>
       <c r="P20" t="n">
-        <v>235.814807661191</v>
+        <v>235.8148076611911</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.0853222674389</v>
+        <v>99.08532226743893</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>121.8578402191579</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>349.6289321378195</v>
+        <v>332.405303746223</v>
       </c>
       <c r="M21" t="n">
         <v>460.5047371566217</v>
       </c>
       <c r="N21" t="n">
-        <v>488.5585973628864</v>
+        <v>488.5585973628865</v>
       </c>
       <c r="O21" t="n">
-        <v>379.8491252296667</v>
+        <v>379.8491252296668</v>
       </c>
       <c r="P21" t="n">
         <v>287.6875952514739</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.0814686107544</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,10 +36281,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>30.37038724345147</v>
+        <v>30.37038724345148</v>
       </c>
       <c r="L22" t="n">
-        <v>94.95094719301518</v>
+        <v>94.9509471930152</v>
       </c>
       <c r="M22" t="n">
         <v>110.6065244416944</v>
@@ -36293,10 +36293,10 @@
         <v>113.466060045434</v>
       </c>
       <c r="O22" t="n">
-        <v>88.62619518868838</v>
+        <v>88.6261951886884</v>
       </c>
       <c r="P22" t="n">
-        <v>52.076755754598</v>
+        <v>52.07675575459801</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37630,10 +37630,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343413</v>
       </c>
       <c r="L44" t="n">
         <v>421.5361394435301</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>853988.6873887482</v>
+        <v>919695.7399551285</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>405687.0519298026</v>
+        <v>405687.0519298023</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11773978.35958495</v>
+        <v>11773978.35958493</v>
       </c>
     </row>
     <row r="9">
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="X2" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>130.1562265640802</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>52.42556848774763</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>82.69355372315668</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1028,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>164.4624917799569</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>220.2131257424249</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V8" t="n">
         <v>241.0142888776591</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>142.8343628684003</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>74.46303422189274</v>
       </c>
       <c r="I11" t="n">
-        <v>138.5362115105049</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1451,25 +1451,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>92.59194012706968</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>70.78957724245153</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>66.60350559207139</v>
+        <v>11.61418905439552</v>
       </c>
       <c r="S12" t="n">
-        <v>161.6448423772186</v>
+        <v>161.6448423772187</v>
       </c>
       <c r="T12" t="n">
         <v>197.9863995095175</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9058271976456</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>216.1206161765721</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>226.0096940321479</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>264.2233259799584</v>
+        <v>254.3342481243825</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>86.42041023393332</v>
+        <v>86.42041023393334</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T14" t="n">
         <v>218.674275242386</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>104.3088053975995</v>
       </c>
       <c r="W14" t="n">
-        <v>170.8421121072537</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,13 +1691,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>9.94510684368203</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>70.78957724245153</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>161.6448423772186</v>
+        <v>161.6448423772187</v>
       </c>
       <c r="T15" t="n">
         <v>197.9863995095175</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>126.3964462367828</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>193.8209438199395</v>
+        <v>193.8209438199394</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H17" t="n">
-        <v>125.7975156448784</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.42041023393331</v>
+        <v>86.42041023393335</v>
       </c>
       <c r="S17" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>57.85160247598015</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>78.35883091487935</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>66.6035055920714</v>
       </c>
       <c r="S18" t="n">
-        <v>161.6448423772186</v>
+        <v>161.6448423772187</v>
       </c>
       <c r="T18" t="n">
         <v>197.9863995095175</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9058271976456</v>
+        <v>80.01607206505221</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2943157982424</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>47.61566371171899</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>228.2062988327023</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>108.4308220919502</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>160.6277566519369</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>73.56061563340758</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>66.6035055920714</v>
       </c>
       <c r="S21" t="n">
-        <v>161.6448423772186</v>
+        <v>161.6448423772187</v>
       </c>
       <c r="T21" t="n">
-        <v>121.0760031402509</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9058271976456</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>48.39989579700821</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>216.1206161765721</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>226.0096940321479</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>38.21363194781048</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,10 +2335,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>225.4603876057576</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>138.5970583420184</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2414,7 +2414,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
         <v>61.42221998250818</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>61.61413745349994</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>98.77920426633925</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>280.1030413543936</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -2605,7 +2605,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>229.588948023153</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>239.0115469558601</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>107.5648922361045</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -2812,7 +2812,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>101.8825978425036</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>51.50374221639657</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>129.6781866221426</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,19 +3268,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>218.8420570836481</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>199.4782993751476</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>161.2620823710465</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>275.0992346450739</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>33.3373484975798</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>89.76224143674108</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>62.34212692452515</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>68.2276977578159</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>162.4608466928088</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>41.81485072602715</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>157.0044783406138</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>201.0891638436807</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>323.991859522895</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>371.1796963936544</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4064,7 +4064,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554002</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>129.6781866221427</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>235.4745188564438</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>812.6742080953335</v>
       </c>
       <c r="W2" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
         <v>749.627473042513</v>
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>933.9571464551993</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>705.7335281915883</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V3" t="n">
-        <v>470.5814199598456</v>
+        <v>430.9452567743808</v>
       </c>
       <c r="W3" t="n">
-        <v>227.1326433157456</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="4">
@@ -4518,10 +4518,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
         <v>19.28114311021272</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
         <v>262.7299197543128</v>
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102.8099852548154</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C6" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
         <v>19.28114311021272</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>761.8705608694022</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="W6" t="n">
-        <v>518.4217842253022</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="X6" t="n">
-        <v>310.5702840197694</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y6" t="n">
-        <v>102.8099852548154</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="7">
@@ -4755,7 +4755,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
         <v>19.28114311021272</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4834,22 +4834,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="V8" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="W8" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="X8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>718.6104918530166</v>
       </c>
       <c r="V9" t="n">
-        <v>500.6814290152826</v>
+        <v>718.6104918530166</v>
       </c>
       <c r="W9" t="n">
-        <v>257.2326523711826</v>
+        <v>475.1617152089165</v>
       </c>
       <c r="X9" t="n">
-        <v>49.38115216564972</v>
+        <v>475.1617152089165</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>475.1617152089165</v>
       </c>
     </row>
     <row r="10">
@@ -4995,10 +4995,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1347.860118226593</v>
+        <v>1332.654663760117</v>
       </c>
       <c r="C11" t="n">
-        <v>978.897601286181</v>
+        <v>1332.654663760117</v>
       </c>
       <c r="D11" t="n">
-        <v>978.897601286181</v>
+        <v>1332.654663760117</v>
       </c>
       <c r="E11" t="n">
-        <v>593.1093486879367</v>
+        <v>946.8664111618727</v>
       </c>
       <c r="F11" t="n">
-        <v>182.1234438983292</v>
+        <v>535.8805063722652</v>
       </c>
       <c r="G11" t="n">
-        <v>182.1234438983292</v>
+        <v>117.403062798721</v>
       </c>
       <c r="H11" t="n">
-        <v>182.1234438983292</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="I11" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J11" t="n">
-        <v>115.2290882856227</v>
+        <v>115.2290882856223</v>
       </c>
       <c r="K11" t="n">
-        <v>345.4437346953284</v>
+        <v>345.443734695328</v>
       </c>
       <c r="L11" t="n">
-        <v>683.3219880803408</v>
+        <v>683.3219880803404</v>
       </c>
       <c r="M11" t="n">
-        <v>1075.883192613821</v>
+        <v>1075.88319261382</v>
       </c>
       <c r="N11" t="n">
         <v>1460.164450300943</v>
@@ -5068,25 +5068,25 @@
         <v>2109.393835800051</v>
       </c>
       <c r="S11" t="n">
-        <v>1921.511879802147</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T11" t="n">
-        <v>1700.628773496707</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="U11" t="n">
-        <v>1700.628773496707</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="V11" t="n">
-        <v>1700.628773496707</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="W11" t="n">
-        <v>1347.860118226593</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="X11" t="n">
-        <v>1347.860118226593</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="Y11" t="n">
-        <v>1347.860118226593</v>
+        <v>1719.254503824239</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>605.6370858810596</v>
+        <v>668.1462540522264</v>
       </c>
       <c r="C12" t="n">
-        <v>431.1840565999327</v>
+        <v>668.1462540522264</v>
       </c>
       <c r="D12" t="n">
-        <v>282.2496469386814</v>
+        <v>519.2118443909751</v>
       </c>
       <c r="E12" t="n">
-        <v>188.7224346891161</v>
+        <v>359.9743893855197</v>
       </c>
       <c r="F12" t="n">
-        <v>42.18787671600102</v>
+        <v>359.9743893855197</v>
       </c>
       <c r="G12" t="n">
-        <v>42.18787671600102</v>
+        <v>221.7894571263213</v>
       </c>
       <c r="H12" t="n">
-        <v>42.18787671600102</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="I12" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J12" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="K12" t="n">
-        <v>162.8271385329672</v>
+        <v>253.9410299829669</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9597813494086</v>
+        <v>600.0736727994082</v>
       </c>
       <c r="M12" t="n">
-        <v>964.859471134464</v>
+        <v>1055.973362584464</v>
       </c>
       <c r="N12" t="n">
-        <v>1448.532482523722</v>
+        <v>1539.646373973721</v>
       </c>
       <c r="O12" t="n">
-        <v>1824.583116501092</v>
+        <v>1915.697007951091</v>
       </c>
       <c r="P12" t="n">
-        <v>2109.393835800051</v>
+        <v>1971.703181875404</v>
       </c>
       <c r="Q12" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R12" t="n">
-        <v>2042.117567525231</v>
+        <v>2097.662331704702</v>
       </c>
       <c r="S12" t="n">
-        <v>1878.839948962384</v>
+        <v>1934.384713141854</v>
       </c>
       <c r="T12" t="n">
-        <v>1678.853686831559</v>
+        <v>1734.398451011029</v>
       </c>
       <c r="U12" t="n">
-        <v>1678.853686831559</v>
+        <v>1506.210746770983</v>
       </c>
       <c r="V12" t="n">
-        <v>1443.701578599816</v>
+        <v>1506.210746770983</v>
       </c>
       <c r="W12" t="n">
-        <v>1189.464221871614</v>
+        <v>1251.973390042781</v>
       </c>
       <c r="X12" t="n">
-        <v>981.6127216660816</v>
+        <v>1044.121889837248</v>
       </c>
       <c r="Y12" t="n">
-        <v>773.8524229011277</v>
+        <v>836.3615910722945</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="C13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="D13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="E13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="F13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="G13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="H13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="I13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="K13" t="n">
-        <v>72.25456008701799</v>
+        <v>72.25456008701795</v>
       </c>
       <c r="L13" t="n">
         <v>166.255997808103</v>
       </c>
       <c r="M13" t="n">
-        <v>275.7564570053805</v>
+        <v>275.7564570053804</v>
       </c>
       <c r="N13" t="n">
-        <v>388.0878564503602</v>
+        <v>388.0878564503601</v>
       </c>
       <c r="O13" t="n">
-        <v>475.8277896871617</v>
+        <v>475.8277896871616</v>
       </c>
       <c r="P13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="Q13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="R13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="S13" t="n">
-        <v>309.0801251806055</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="T13" t="n">
-        <v>309.0801251806055</v>
+        <v>299.0911576497207</v>
       </c>
       <c r="U13" t="n">
-        <v>309.0801251806055</v>
+        <v>299.0911576497207</v>
       </c>
       <c r="V13" t="n">
-        <v>309.0801251806055</v>
+        <v>299.0911576497207</v>
       </c>
       <c r="W13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="X13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="Y13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>984.7073876411853</v>
+        <v>1155.204344861407</v>
       </c>
       <c r="C14" t="n">
-        <v>984.7073876411853</v>
+        <v>786.2418279209958</v>
       </c>
       <c r="D14" t="n">
-        <v>626.4416890344348</v>
+        <v>427.9761293142453</v>
       </c>
       <c r="E14" t="n">
-        <v>626.4416890344348</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="F14" t="n">
-        <v>215.4557842448272</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="G14" t="n">
-        <v>215.4557842448272</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="H14" t="n">
-        <v>215.4557842448272</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="I14" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J14" t="n">
-        <v>115.2290882856226</v>
+        <v>115.2290882856224</v>
       </c>
       <c r="K14" t="n">
-        <v>345.4437346953284</v>
+        <v>345.4437346953283</v>
       </c>
       <c r="L14" t="n">
-        <v>683.3219880803408</v>
+        <v>683.3219880803407</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.883192613821</v>
+        <v>1075.88319261382</v>
       </c>
       <c r="N14" t="n">
         <v>1460.164450300943</v>
@@ -5305,25 +5305,25 @@
         <v>2022.100492129411</v>
       </c>
       <c r="S14" t="n">
-        <v>2022.100492129411</v>
+        <v>1834.218536131507</v>
       </c>
       <c r="T14" t="n">
-        <v>1801.217385823971</v>
+        <v>1613.335429826067</v>
       </c>
       <c r="U14" t="n">
-        <v>1547.414509624324</v>
+        <v>1613.335429826067</v>
       </c>
       <c r="V14" t="n">
-        <v>1547.414509624324</v>
+        <v>1507.973000131522</v>
       </c>
       <c r="W14" t="n">
-        <v>1374.846719616997</v>
+        <v>1155.204344861407</v>
       </c>
       <c r="X14" t="n">
-        <v>1374.846719616997</v>
+        <v>1155.204344861407</v>
       </c>
       <c r="Y14" t="n">
-        <v>984.7073876411853</v>
+        <v>1155.204344861407</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>524.8127706638348</v>
+        <v>444.7256499158325</v>
       </c>
       <c r="C15" t="n">
-        <v>350.3597413827078</v>
+        <v>270.2726206347055</v>
       </c>
       <c r="D15" t="n">
-        <v>201.4253317214565</v>
+        <v>260.2270581663398</v>
       </c>
       <c r="E15" t="n">
-        <v>42.18787671600102</v>
+        <v>260.2270581663398</v>
       </c>
       <c r="F15" t="n">
-        <v>42.18787671600102</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="G15" t="n">
-        <v>42.18787671600102</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="H15" t="n">
-        <v>42.18787671600102</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="I15" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J15" t="n">
-        <v>91.99734226147163</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="K15" t="n">
-        <v>303.7504955284376</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="L15" t="n">
-        <v>649.8831383448789</v>
+        <v>388.3205195324423</v>
       </c>
       <c r="M15" t="n">
-        <v>1105.782828129934</v>
+        <v>844.2202093174976</v>
       </c>
       <c r="N15" t="n">
-        <v>1310.841828599075</v>
+        <v>1327.893220706755</v>
       </c>
       <c r="O15" t="n">
-        <v>1686.892462576445</v>
+        <v>1703.943854684125</v>
       </c>
       <c r="P15" t="n">
-        <v>1971.703181875404</v>
+        <v>1988.754573983084</v>
       </c>
       <c r="Q15" t="n">
         <v>2109.393835800051</v>
@@ -5384,7 +5384,7 @@
         <v>2109.393835800051</v>
       </c>
       <c r="S15" t="n">
-        <v>1946.116217237204</v>
+        <v>1946.116217237203</v>
       </c>
       <c r="T15" t="n">
         <v>1746.129955106378</v>
@@ -5393,16 +5393,16 @@
         <v>1517.942250866332</v>
       </c>
       <c r="V15" t="n">
-        <v>1282.79014263459</v>
+        <v>1282.790142634589</v>
       </c>
       <c r="W15" t="n">
-        <v>1028.552785906388</v>
+        <v>1028.552785906387</v>
       </c>
       <c r="X15" t="n">
-        <v>820.7012857008551</v>
+        <v>820.7012857008544</v>
       </c>
       <c r="Y15" t="n">
-        <v>693.0281076839028</v>
+        <v>612.9409869359006</v>
       </c>
     </row>
     <row r="16">
@@ -5412,61 +5412,61 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="C16" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="D16" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="E16" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="F16" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="G16" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="H16" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="I16" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J16" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="K16" t="n">
-        <v>72.25456008701798</v>
+        <v>72.25456008701795</v>
       </c>
       <c r="L16" t="n">
         <v>166.255997808103</v>
       </c>
       <c r="M16" t="n">
-        <v>275.7564570053805</v>
+        <v>275.7564570053804</v>
       </c>
       <c r="N16" t="n">
-        <v>388.0878564503602</v>
+        <v>388.0878564503601</v>
       </c>
       <c r="O16" t="n">
-        <v>475.8277896871617</v>
+        <v>475.8277896871616</v>
       </c>
       <c r="P16" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="Q16" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="R16" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="S16" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="T16" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="U16" t="n">
         <v>331.6050467529616</v>
@@ -5475,13 +5475,13 @@
         <v>331.6050467529616</v>
       </c>
       <c r="W16" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="X16" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="Y16" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1282.272542482497</v>
+        <v>992.198926425122</v>
       </c>
       <c r="C17" t="n">
-        <v>913.310025542085</v>
+        <v>992.198926425122</v>
       </c>
       <c r="D17" t="n">
-        <v>555.0443269353345</v>
+        <v>633.9332278183715</v>
       </c>
       <c r="E17" t="n">
-        <v>169.2560743370903</v>
+        <v>633.9332278183715</v>
       </c>
       <c r="F17" t="n">
-        <v>169.2560743370903</v>
+        <v>633.9332278183715</v>
       </c>
       <c r="G17" t="n">
-        <v>169.2560743370903</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="H17" t="n">
-        <v>42.18787671600102</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="I17" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J17" t="n">
         <v>115.2290882856225</v>
@@ -5542,25 +5542,25 @@
         <v>2022.100492129411</v>
       </c>
       <c r="S17" t="n">
-        <v>1834.218536131508</v>
+        <v>2022.100492129411</v>
       </c>
       <c r="T17" t="n">
-        <v>1613.335429826067</v>
+        <v>2022.100492129411</v>
       </c>
       <c r="U17" t="n">
-        <v>1613.335429826067</v>
+        <v>1768.297615929764</v>
       </c>
       <c r="V17" t="n">
-        <v>1282.272542482497</v>
+        <v>1437.234728586193</v>
       </c>
       <c r="W17" t="n">
-        <v>1282.272542482497</v>
+        <v>1378.798766489244</v>
       </c>
       <c r="X17" t="n">
-        <v>1282.272542482497</v>
+        <v>1378.798766489244</v>
       </c>
       <c r="Y17" t="n">
-        <v>1282.272542482497</v>
+        <v>1378.798766489244</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>444.7256499158332</v>
+        <v>524.8127706638348</v>
       </c>
       <c r="C18" t="n">
-        <v>270.2726206347062</v>
+        <v>350.3597413827078</v>
       </c>
       <c r="D18" t="n">
-        <v>121.3382109734549</v>
+        <v>201.4253317214565</v>
       </c>
       <c r="E18" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="F18" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="G18" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="H18" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="I18" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J18" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="K18" t="n">
-        <v>162.8271385329672</v>
+        <v>162.8271385329671</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9597813494086</v>
+        <v>508.9597813494083</v>
       </c>
       <c r="M18" t="n">
-        <v>964.859471134464</v>
+        <v>964.8594711344637</v>
       </c>
       <c r="N18" t="n">
-        <v>1448.532482523722</v>
+        <v>1448.532482523721</v>
       </c>
       <c r="O18" t="n">
-        <v>1824.583116501092</v>
+        <v>1824.583116501091</v>
       </c>
       <c r="P18" t="n">
         <v>2109.393835800051</v>
@@ -5618,28 +5618,28 @@
         <v>2109.393835800051</v>
       </c>
       <c r="R18" t="n">
-        <v>2109.393835800051</v>
+        <v>2042.117567525231</v>
       </c>
       <c r="S18" t="n">
-        <v>1946.116217237204</v>
+        <v>1878.839948962384</v>
       </c>
       <c r="T18" t="n">
-        <v>1746.129955106378</v>
+        <v>1678.853686831558</v>
       </c>
       <c r="U18" t="n">
-        <v>1517.942250866332</v>
+        <v>1598.029371614334</v>
       </c>
       <c r="V18" t="n">
-        <v>1282.79014263459</v>
+        <v>1362.877263382591</v>
       </c>
       <c r="W18" t="n">
-        <v>1028.552785906388</v>
+        <v>1108.63990665439</v>
       </c>
       <c r="X18" t="n">
-        <v>820.7012857008551</v>
+        <v>900.7884064488567</v>
       </c>
       <c r="Y18" t="n">
-        <v>612.9409869359013</v>
+        <v>693.0281076839028</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>190.1009702983941</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="C19" t="n">
-        <v>190.1009702983941</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="D19" t="n">
-        <v>190.1009702983941</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="E19" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="F19" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="G19" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="H19" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="I19" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J19" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="K19" t="n">
-        <v>72.25456008701799</v>
+        <v>72.25456008701794</v>
       </c>
       <c r="L19" t="n">
-        <v>166.255997808103</v>
+        <v>166.2559978081029</v>
       </c>
       <c r="M19" t="n">
-        <v>275.7564570053805</v>
+        <v>275.7564570053804</v>
       </c>
       <c r="N19" t="n">
-        <v>388.0878564503602</v>
+        <v>388.08785645036</v>
       </c>
       <c r="O19" t="n">
-        <v>475.8277896871617</v>
+        <v>475.8277896871615</v>
       </c>
       <c r="P19" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842135</v>
       </c>
       <c r="Q19" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842135</v>
       </c>
       <c r="R19" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842135</v>
       </c>
       <c r="S19" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842135</v>
       </c>
       <c r="T19" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842135</v>
       </c>
       <c r="U19" t="n">
-        <v>238.1976003102315</v>
+        <v>527.3837778842135</v>
       </c>
       <c r="V19" t="n">
-        <v>190.1009702983941</v>
+        <v>272.6992896783266</v>
       </c>
       <c r="W19" t="n">
-        <v>190.1009702983941</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="X19" t="n">
-        <v>190.1009702983941</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="Y19" t="n">
-        <v>190.1009702983941</v>
+        <v>42.18787671600101</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>796.938646254657</v>
+        <v>1735.928077538971</v>
       </c>
       <c r="C20" t="n">
-        <v>427.9761293142453</v>
+        <v>1366.965560598559</v>
       </c>
       <c r="D20" t="n">
-        <v>427.9761293142453</v>
+        <v>1257.439477677397</v>
       </c>
       <c r="E20" t="n">
-        <v>42.18787671600102</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="F20" t="n">
-        <v>42.18787671600102</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="G20" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="H20" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="I20" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J20" t="n">
-        <v>115.2290882856227</v>
+        <v>115.2290882856226</v>
       </c>
       <c r="K20" t="n">
-        <v>345.4437346953284</v>
+        <v>345.4437346953283</v>
       </c>
       <c r="L20" t="n">
-        <v>683.3219880803409</v>
+        <v>683.3219880803406</v>
       </c>
       <c r="M20" t="n">
-        <v>1075.883192613821</v>
+        <v>1075.88319261382</v>
       </c>
       <c r="N20" t="n">
         <v>1460.164450300943</v>
@@ -5785,19 +5785,19 @@
         <v>2109.393835800051</v>
       </c>
       <c r="U20" t="n">
-        <v>1947.14357655567</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="V20" t="n">
-        <v>1947.14357655567</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="W20" t="n">
-        <v>1947.14357655567</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="X20" t="n">
-        <v>1573.67781829459</v>
+        <v>1735.928077538971</v>
       </c>
       <c r="Y20" t="n">
-        <v>1183.538486318779</v>
+        <v>1735.928077538971</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>522.4129189756985</v>
+        <v>671.3473286369498</v>
       </c>
       <c r="C21" t="n">
-        <v>347.9598896945715</v>
+        <v>496.8942993558228</v>
       </c>
       <c r="D21" t="n">
         <v>347.9598896945715</v>
       </c>
       <c r="E21" t="n">
-        <v>188.7224346891161</v>
+        <v>188.722434689116</v>
       </c>
       <c r="F21" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="G21" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="H21" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="I21" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J21" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="K21" t="n">
-        <v>42.18787671600102</v>
+        <v>162.827138532967</v>
       </c>
       <c r="L21" t="n">
-        <v>371.2691274247618</v>
+        <v>508.9597813494083</v>
       </c>
       <c r="M21" t="n">
-        <v>827.1688172098172</v>
+        <v>964.8594711344637</v>
       </c>
       <c r="N21" t="n">
-        <v>1310.841828599075</v>
+        <v>1448.532482523721</v>
       </c>
       <c r="O21" t="n">
-        <v>1686.892462576445</v>
+        <v>1824.583116501091</v>
       </c>
       <c r="P21" t="n">
-        <v>1971.703181875404</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="Q21" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R21" t="n">
-        <v>2109.393835800051</v>
+        <v>2042.117567525231</v>
       </c>
       <c r="S21" t="n">
-        <v>1946.116217237204</v>
+        <v>1878.839948962384</v>
       </c>
       <c r="T21" t="n">
-        <v>1823.817224166243</v>
+        <v>1878.839948962384</v>
       </c>
       <c r="U21" t="n">
-        <v>1595.629519926197</v>
+        <v>1650.652244722338</v>
       </c>
       <c r="V21" t="n">
-        <v>1360.477411694455</v>
+        <v>1415.500136490595</v>
       </c>
       <c r="W21" t="n">
-        <v>1106.240054966253</v>
+        <v>1161.262779762394</v>
       </c>
       <c r="X21" t="n">
-        <v>898.3885547607204</v>
+        <v>953.4112795568608</v>
       </c>
       <c r="Y21" t="n">
-        <v>690.6282559957665</v>
+        <v>745.6509807919069</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.18787671600102</v>
+        <v>237.966607847253</v>
       </c>
       <c r="C22" t="n">
-        <v>42.18787671600102</v>
+        <v>189.0778242139114</v>
       </c>
       <c r="D22" t="n">
-        <v>42.18787671600102</v>
+        <v>189.0778242139114</v>
       </c>
       <c r="E22" t="n">
-        <v>42.18787671600102</v>
+        <v>189.0778242139114</v>
       </c>
       <c r="F22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="G22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="H22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="I22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="K22" t="n">
-        <v>72.25456008701799</v>
+        <v>72.25456008701795</v>
       </c>
       <c r="L22" t="n">
         <v>166.255997808103</v>
       </c>
       <c r="M22" t="n">
-        <v>275.7564570053805</v>
+        <v>275.7564570053804</v>
       </c>
       <c r="N22" t="n">
-        <v>388.0878564503602</v>
+        <v>388.0878564503601</v>
       </c>
       <c r="O22" t="n">
-        <v>475.8277896871617</v>
+        <v>475.8277896871616</v>
       </c>
       <c r="P22" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="Q22" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="R22" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="S22" t="n">
-        <v>309.0801251806055</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="T22" t="n">
-        <v>80.78750494611262</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="U22" t="n">
-        <v>42.18787671600102</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="V22" t="n">
-        <v>42.18787671600102</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="W22" t="n">
-        <v>42.18787671600102</v>
+        <v>237.966607847253</v>
       </c>
       <c r="X22" t="n">
-        <v>42.18787671600102</v>
+        <v>237.966607847253</v>
       </c>
       <c r="Y22" t="n">
-        <v>42.18787671600102</v>
+        <v>237.966607847253</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1865.381229508782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C23" t="n">
-        <v>1496.41871256837</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D23" t="n">
-        <v>1496.41871256837</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E23" t="n">
-        <v>1110.630459970126</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F23" t="n">
-        <v>699.6445551805186</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G23" t="n">
-        <v>281.6807470787055</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X23" t="n">
-        <v>2642.120401548716</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="Y23" t="n">
-        <v>2251.981069572904</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
@@ -6086,7 +6086,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6107,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>149.5382038240415</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C25" t="n">
-        <v>149.5382038240415</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D25" t="n">
-        <v>149.5382038240415</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5382038240415</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F25" t="n">
-        <v>149.5382038240415</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
         <v>53.94298182036445</v>
@@ -6171,28 +6171,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610022</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="V25" t="n">
-        <v>438.9553738610022</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="W25" t="n">
-        <v>149.5382038240415</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="X25" t="n">
-        <v>149.5382038240415</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y25" t="n">
-        <v>149.5382038240415</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>898.8784838925781</v>
+        <v>1075.055971578407</v>
       </c>
       <c r="C26" t="n">
-        <v>898.8784838925781</v>
+        <v>1075.055971578407</v>
       </c>
       <c r="D26" t="n">
-        <v>898.8784838925781</v>
+        <v>1075.055971578407</v>
       </c>
       <c r="E26" t="n">
-        <v>898.8784838925781</v>
+        <v>1075.055971578407</v>
       </c>
       <c r="F26" t="n">
-        <v>799.1015098861748</v>
+        <v>664.0700667887995</v>
       </c>
       <c r="G26" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W26" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X26" t="n">
-        <v>1289.01781586839</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y26" t="n">
-        <v>898.8784838925781</v>
+        <v>1075.055971578407</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6344,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C28" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D28" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E28" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6411,25 +6411,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610022</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V28" t="n">
-        <v>438.9553738610022</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W28" t="n">
-        <v>149.5382038240415</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X28" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y28" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1704.527073573122</v>
+        <v>2065.583954036491</v>
       </c>
       <c r="C29" t="n">
-        <v>1704.527073573122</v>
+        <v>1696.62143709608</v>
       </c>
       <c r="D29" t="n">
-        <v>1595.875667274027</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="E29" t="n">
-        <v>1210.087414675782</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F29" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6466,16 +6466,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2057.295728843236</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>1704.527073573122</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X29" t="n">
-        <v>1704.527073573122</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y29" t="n">
-        <v>1704.527073573122</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="30">
@@ -6648,25 +6648,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U31" t="n">
-        <v>438.9553738610022</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V31" t="n">
-        <v>438.9553738610022</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W31" t="n">
-        <v>149.5382038240415</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876363</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1364.743608328862</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C32" t="n">
-        <v>995.7810913884502</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D32" t="n">
-        <v>637.5153927816998</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E32" t="n">
-        <v>637.5153927816998</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F32" t="n">
-        <v>637.5153927816998</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6727,25 +6727,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2048.575150942547</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V32" t="n">
-        <v>1717.512263598976</v>
+        <v>2391.363323619549</v>
       </c>
       <c r="W32" t="n">
-        <v>1364.743608328862</v>
+        <v>2391.363323619549</v>
       </c>
       <c r="X32" t="n">
-        <v>1364.743608328862</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="Y32" t="n">
-        <v>1364.743608328862</v>
+        <v>1627.758233382657</v>
       </c>
     </row>
     <row r="33">
@@ -6755,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K33" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C34" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D34" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E34" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F34" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6885,25 +6885,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>597.1409169113407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>369.8327295799424</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V34" t="n">
-        <v>369.8327295799424</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X34" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y34" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>797.9969330253591</v>
+        <v>1061.921889775365</v>
       </c>
       <c r="C35" t="n">
-        <v>797.9969330253591</v>
+        <v>692.9593728349535</v>
       </c>
       <c r="D35" t="n">
-        <v>439.7312344186087</v>
+        <v>692.9593728349535</v>
       </c>
       <c r="E35" t="n">
-        <v>53.94298182036445</v>
+        <v>692.9593728349535</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U35" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V35" t="n">
-        <v>2112.324418312743</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W35" t="n">
-        <v>1759.555763042629</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X35" t="n">
-        <v>1386.090004781549</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y35" t="n">
-        <v>1184.596773089481</v>
+        <v>1448.521729839487</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>222.942782082032</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C37" t="n">
-        <v>222.942782082032</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D37" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E37" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7122,25 +7122,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T37" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U37" t="n">
-        <v>500.820796875036</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="V37" t="n">
-        <v>500.820796875036</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="W37" t="n">
-        <v>222.942782082032</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="X37" t="n">
-        <v>222.942782082032</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.942782082032</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1611.619444146873</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="C38" t="n">
-        <v>1242.656927206461</v>
+        <v>1215.860583733539</v>
       </c>
       <c r="D38" t="n">
-        <v>884.391228599711</v>
+        <v>857.5948851267888</v>
       </c>
       <c r="E38" t="n">
-        <v>498.6029760014667</v>
+        <v>471.8066325285445</v>
       </c>
       <c r="F38" t="n">
-        <v>87.61707121185918</v>
+        <v>471.8066325285445</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036444</v>
+        <v>471.8066325285445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>144.6119125645474</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2388.358616186807</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W38" t="n">
-        <v>2388.358616186807</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X38" t="n">
-        <v>2388.358616186807</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y38" t="n">
-        <v>1998.219284210995</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7265,13 +7265,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>285.8510101265796</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C40" t="n">
-        <v>116.9148271986727</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>116.9148271986727</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>116.9148271986727</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>116.9148271986727</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7359,25 +7359,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>513.8405610245969</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W40" t="n">
-        <v>513.8405610245969</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X40" t="n">
-        <v>285.8510101265796</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y40" t="n">
-        <v>285.8510101265796</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1738.858660051663</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C41" t="n">
-        <v>1738.858660051663</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D41" t="n">
-        <v>1380.592961444912</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E41" t="n">
-        <v>994.8047088466681</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F41" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533141</v>
@@ -7417,7 +7417,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2443.387305656313</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V41" t="n">
-        <v>2112.324418312743</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W41" t="n">
-        <v>2112.324418312743</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X41" t="n">
-        <v>1738.858660051663</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y41" t="n">
-        <v>1738.858660051663</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7499,16 +7499,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>359.423311480511</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>212.5333639826006</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7605,16 +7605,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y43" t="n">
-        <v>507.3364050629041</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1011.161018525332</v>
+        <v>1219.679656148628</v>
       </c>
       <c r="C44" t="n">
-        <v>1011.161018525332</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D44" t="n">
-        <v>1011.161018525332</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E44" t="n">
-        <v>625.3727659270879</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036444</v>
@@ -7651,13 +7651,13 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
         <v>1836.345445977174</v>
@@ -7681,19 +7681,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2443.387305656313</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2112.324418312743</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>1759.555763042629</v>
+        <v>2369.884586449641</v>
       </c>
       <c r="X44" t="n">
-        <v>1386.090004781549</v>
+        <v>1996.418828188561</v>
       </c>
       <c r="Y44" t="n">
-        <v>1011.161018525332</v>
+        <v>1606.27949621275</v>
       </c>
     </row>
     <row r="45">
@@ -7712,16 +7712,16 @@
         <v>665.1105362747043</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036444</v>
@@ -7730,22 +7730,22 @@
         <v>53.94298182036444</v>
       </c>
       <c r="K45" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036444</v>
@@ -7833,25 +7833,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>597.1409169113406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>369.8327295799423</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>369.8327295799423</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>369.8327295799423</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W46" t="n">
-        <v>369.8327295799423</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X46" t="n">
-        <v>369.8327295799423</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y46" t="n">
-        <v>369.8327295799423</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O6" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>75.77844388033751</v>
+        <v>75.77844388033753</v>
       </c>
       <c r="K12" t="n">
-        <v>172.4310032247</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>87.3470662413044</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.99581912509471</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>75.77844388033753</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>50.5731630055423</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>197.9140804848494</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>192.8536593442525</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>75.77844388033751</v>
+        <v>75.77844388033755</v>
       </c>
       <c r="K18" t="n">
         <v>172.4310032247</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.99581912509471</v>
+        <v>70.99581912509476</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>75.77844388033751</v>
+        <v>75.77844388033753</v>
       </c>
       <c r="K21" t="n">
-        <v>50.57316300554226</v>
+        <v>172.4310032246999</v>
       </c>
       <c r="L21" t="n">
-        <v>353.6167169118627</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>70.99581912509474</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11147,10 +11147,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711641</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11378,7 +11378,7 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22609,10 +22609,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>286.8247010151207</v>
       </c>
       <c r="X2" t="n">
-        <v>307.3148329761767</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22676,22 +22676,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>102.644360585345</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22758,13 +22758,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>330.3082731757329</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,10 +22792,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>329.5048015845142</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>74.95152673224426</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22916,19 +22916,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>68.33809536946836</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22995,10 +22995,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23038,7 +23038,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23074,10 +23074,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>31.13252716541155</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V8" t="n">
         <v>86.73796959247585</v>
@@ -23099,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23114,7 +23114,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>83.10701921257456</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23235,13 +23235,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>329.1304393464753</v>
+        <v>254.6674051245826</v>
       </c>
       <c r="I11" t="n">
-        <v>32.99901694303304</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>86.42041023393331</v>
+        <v>86.42041023393334</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U11" t="n">
         <v>251.2648474376504</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23339,25 +23339,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>65.05314032833127</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>70.78957724245151</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>54.98931653767588</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23393,10 +23393,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9058271976456</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J13" t="n">
-        <v>61.32628970022417</v>
+        <v>61.32628970022419</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.22261241385098</v>
+        <v>48.222612413851</v>
       </c>
       <c r="R13" t="n">
         <v>156.9211815276446</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>216.1206161765721</v>
       </c>
       <c r="T13" t="n">
-        <v>226.0096940321479</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2943157982424</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>22.29967235663264</v>
+        <v>32.1887502122085</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,16 +23497,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>414.2926691378088</v>
@@ -23515,7 +23515,7 @@
         <v>329.1304393464753</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>223.4434530725354</v>
       </c>
       <c r="W14" t="n">
-        <v>178.3988566101594</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23579,13 +23579,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>137.4999587209567</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>136.8030829366063</v>
@@ -23594,7 +23594,7 @@
         <v>107.0159873637655</v>
       </c>
       <c r="I15" t="n">
-        <v>70.78957724245151</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>66.60350559207139</v>
+        <v>66.6035055920714</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>79.28624954052158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23676,7 +23676,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J16" t="n">
-        <v>61.32628970022417</v>
+        <v>61.32628970022419</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.22261241385099</v>
+        <v>48.222612413851</v>
       </c>
       <c r="R16" t="n">
         <v>156.9211815276446</v>
@@ -23709,7 +23709,7 @@
         <v>226.0096940321479</v>
       </c>
       <c r="U16" t="n">
-        <v>92.47337197830285</v>
+        <v>92.47337197830296</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>203.3329237015969</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I17" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>291.3893662414329</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23819,7 +23819,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>79.2862495405216</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23831,7 +23831,7 @@
         <v>107.0159873637655</v>
       </c>
       <c r="I18" t="n">
-        <v>70.78957724245151</v>
+        <v>70.78957724245153</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.60350559207139</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>145.8897551325934</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23913,7 +23913,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J19" t="n">
-        <v>61.32628970022417</v>
+        <v>61.32628970022419</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.22261241385098</v>
+        <v>48.22261241385101</v>
       </c>
       <c r="R19" t="n">
         <v>156.9211815276446</v>
@@ -23946,13 +23946,13 @@
         <v>226.0096940321479</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2943157982424</v>
       </c>
       <c r="V19" t="n">
-        <v>204.521979612109</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>58.31669950388866</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>246.2522195287328</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>329.1304393464753</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>86.42041023393331</v>
+        <v>86.42041023393334</v>
       </c>
       <c r="S20" t="n">
         <v>186.0031364379248</v>
@@ -24025,7 +24025,7 @@
         <v>218.674275242386</v>
       </c>
       <c r="U20" t="n">
-        <v>90.63709078571353</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>92.97256801645976</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24068,7 +24068,7 @@
         <v>107.0159873637655</v>
       </c>
       <c r="I21" t="n">
-        <v>70.78957724245151</v>
+        <v>70.78957724245153</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>66.60350559207139</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>76.91039636926661</v>
+        <v>197.9863995095175</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>118.8469253016196</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.537897457236</v>
@@ -24150,7 +24150,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J22" t="n">
-        <v>61.32628970022417</v>
+        <v>61.32628970022419</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.22261241385098</v>
+        <v>48.222612413851</v>
       </c>
       <c r="R22" t="n">
         <v>156.9211815276446</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>216.1206161765721</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.0096940321479</v>
       </c>
       <c r="U22" t="n">
-        <v>248.0806838504319</v>
+        <v>286.2943157982424</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46238515859952</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>231.1340423364506</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>61.53161905815483</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
@@ -24411,22 +24411,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>163.4209680045843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24454,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>308.0968414753722</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>133.6811286664014</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>50.78177823929093</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24651,22 +24651,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>22.54869530067501</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>143.7222947076205</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>247.1181493845784</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24736,19 +24736,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>11.05637510633818</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24888,13 +24888,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>131.0703856053968</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>311.9015721782914</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>276.2485162537383</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25125,19 +25125,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>82.46735232787634</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>188.0339886580633</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>186.759639280906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25362,19 +25362,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>125.0197918709312</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>11.42376369151714</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>380.4468215232152</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>62.16907480812017</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>104.9676753345258</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25599,7 +25599,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25608,13 +25608,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>157.4819576312212</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>220.2729949706718</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>365.0611950156843</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,22 +25794,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>10.30532391843713</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25845,16 +25845,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>51.04847948014728</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>25.24910919451798</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>15.05824226239918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26073,19 +26073,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>82.46735232787623</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>51.04847948014725</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>448871.9956148848</v>
+        <v>448871.9956148849</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>654316.4802681411</v>
+        <v>654316.480268141</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>654316.4802681413</v>
+        <v>654316.4802681409</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>654316.4802681411</v>
+        <v>654316.4802681408</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>758313.1631806014</v>
+        <v>758313.1631806012</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>758313.1631806012</v>
+        <v>758313.1631806013</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>758313.1631806014</v>
+        <v>758313.1631806012</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>758313.1631806013</v>
+        <v>758313.1631806012</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>758313.1631806013</v>
+        <v>758313.1631806012</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>758313.1631806013</v>
+        <v>758313.1631806012</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>758313.1631806013</v>
+        <v>758313.1631806011</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>166160.6725313324</v>
       </c>
       <c r="E2" t="n">
-        <v>247828.6760862711</v>
+        <v>247828.676086271</v>
       </c>
       <c r="F2" t="n">
-        <v>247828.6760862711</v>
+        <v>247828.676086271</v>
       </c>
       <c r="G2" t="n">
         <v>247828.6760862711</v>
       </c>
       <c r="H2" t="n">
-        <v>247828.6760862711</v>
+        <v>247828.676086271</v>
       </c>
       <c r="I2" t="n">
         <v>289152.6100157573</v>
       </c>
       <c r="J2" t="n">
+        <v>289152.6100157573</v>
+      </c>
+      <c r="K2" t="n">
         <v>289152.6100157575</v>
-      </c>
-      <c r="K2" t="n">
-        <v>289152.6100157577</v>
       </c>
       <c r="L2" t="n">
         <v>289152.6100157574</v>
       </c>
       <c r="M2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="N2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="O2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="P2" t="n">
         <v>289152.6100157575</v>
-      </c>
-      <c r="N2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="O2" t="n">
-        <v>289152.6100157574</v>
-      </c>
-      <c r="P2" t="n">
-        <v>289152.6100157574</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>287351.7100134255</v>
+        <v>287351.7100134254</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>134288.7015116922</v>
+        <v>134288.7015116923</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>35144.55342918498</v>
       </c>
       <c r="F4" t="n">
-        <v>35144.55342918499</v>
+        <v>35144.55342918498</v>
       </c>
       <c r="G4" t="n">
         <v>35144.55342918498</v>
@@ -26459,7 +26459,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="P4" t="n">
-        <v>35944.74664026681</v>
+        <v>35944.74664026682</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>37540.13459730638</v>
+        <v>37540.13459730637</v>
       </c>
       <c r="F5" t="n">
-        <v>37540.13459730638</v>
+        <v>37540.13459730637</v>
       </c>
       <c r="G5" t="n">
-        <v>37540.13459730638</v>
+        <v>37540.13459730637</v>
       </c>
       <c r="H5" t="n">
-        <v>37540.13459730638</v>
+        <v>37540.13459730637</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8757.885168275217</v>
+        <v>2238.32438976126</v>
       </c>
       <c r="C6" t="n">
-        <v>72011.5463632725</v>
+        <v>83007.75592130893</v>
       </c>
       <c r="D6" t="n">
-        <v>72011.54636327256</v>
+        <v>83007.75592130898</v>
       </c>
       <c r="E6" t="n">
-        <v>-120342.3323959393</v>
+        <v>-113021.182997875</v>
       </c>
       <c r="F6" t="n">
-        <v>167009.3776174862</v>
+        <v>174330.5270155503</v>
       </c>
       <c r="G6" t="n">
-        <v>167009.3776174862</v>
+        <v>174330.5270155504</v>
       </c>
       <c r="H6" t="n">
-        <v>167009.3776174862</v>
+        <v>174330.5270155503</v>
       </c>
       <c r="I6" t="n">
-        <v>63619.27005456958</v>
+        <v>69080.8424258068</v>
       </c>
       <c r="J6" t="n">
-        <v>134848.0289671558</v>
+        <v>140309.6013383929</v>
       </c>
       <c r="K6" t="n">
-        <v>197907.9715662622</v>
+        <v>203369.5439374993</v>
       </c>
       <c r="L6" t="n">
-        <v>197907.9715662619</v>
+        <v>203369.5439374993</v>
       </c>
       <c r="M6" t="n">
-        <v>126552.3510475512</v>
+        <v>132013.9234187885</v>
       </c>
       <c r="N6" t="n">
-        <v>197907.9715662621</v>
+        <v>203369.5439374992</v>
       </c>
       <c r="O6" t="n">
-        <v>197907.9715662619</v>
+        <v>203369.5439374993</v>
       </c>
       <c r="P6" t="n">
-        <v>197907.9715662619</v>
+        <v>203369.5439374993</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598901</v>
+        <v>251.25450885989</v>
       </c>
       <c r="F3" t="n">
-        <v>251.2545088598901</v>
+        <v>251.25450885989</v>
       </c>
       <c r="G3" t="n">
-        <v>251.2545088598901</v>
+        <v>251.2545088598899</v>
       </c>
       <c r="H3" t="n">
-        <v>251.2545088598901</v>
+        <v>251.25450885989</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,37 +26798,37 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3484589500127</v>
+        <v>527.3484589500126</v>
       </c>
       <c r="F4" t="n">
-        <v>527.3484589500127</v>
+        <v>527.3484589500126</v>
       </c>
       <c r="G4" t="n">
-        <v>527.3484589500127</v>
+        <v>527.3484589500126</v>
       </c>
       <c r="H4" t="n">
-        <v>527.3484589500127</v>
+        <v>527.3484589500126</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="M4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="N4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="O4" t="n">
-        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545555</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598901</v>
+        <v>251.25450885989</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4891553571966</v>
+        <v>126.4891553571967</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.3341700723537</v>
+        <v>286.3341700723536</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>146.9388138045429</v>
+        <v>146.938813804543</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723537</v>
+        <v>286.3341700723536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,10 +31758,10 @@
         <v>10.34436276929185</v>
       </c>
       <c r="I11" t="n">
-        <v>38.940661116868</v>
+        <v>38.94066111686798</v>
       </c>
       <c r="J11" t="n">
-        <v>85.72829094008884</v>
+        <v>85.7282909400888</v>
       </c>
       <c r="K11" t="n">
         <v>128.4844853523065</v>
@@ -31770,31 +31770,31 @@
         <v>159.3963654549029</v>
       </c>
       <c r="M11" t="n">
-        <v>177.3591689601776</v>
+        <v>177.3591689601775</v>
       </c>
       <c r="N11" t="n">
-        <v>180.2290257372556</v>
+        <v>180.2290257372555</v>
       </c>
       <c r="O11" t="n">
-        <v>170.1851583102183</v>
+        <v>170.1851583102182</v>
       </c>
       <c r="P11" t="n">
-        <v>145.249095244978</v>
+        <v>145.2490952449779</v>
       </c>
       <c r="Q11" t="n">
         <v>109.0760214819837</v>
       </c>
       <c r="R11" t="n">
-        <v>63.44870770721637</v>
+        <v>63.44870770721634</v>
       </c>
       <c r="S11" t="n">
-        <v>23.01693314832059</v>
+        <v>23.01693314832058</v>
       </c>
       <c r="T11" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745399</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08080547018609523</v>
+        <v>0.08080547018609519</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5404342266042919</v>
+        <v>0.5404342266042916</v>
       </c>
       <c r="H12" t="n">
-        <v>5.219456872730925</v>
+        <v>5.219456872730922</v>
       </c>
       <c r="I12" t="n">
-        <v>18.60705560896356</v>
+        <v>18.60705560896355</v>
       </c>
       <c r="J12" t="n">
-        <v>51.05918278632918</v>
+        <v>51.05918278632916</v>
       </c>
       <c r="K12" t="n">
-        <v>87.26827596881674</v>
+        <v>87.2682759688167</v>
       </c>
       <c r="L12" t="n">
         <v>117.3429666142345</v>
       </c>
       <c r="M12" t="n">
-        <v>136.9337073286401</v>
+        <v>136.93370732864</v>
       </c>
       <c r="N12" t="n">
         <v>140.5579351026662</v>
       </c>
       <c r="O12" t="n">
-        <v>128.5830503973817</v>
+        <v>128.5830503973816</v>
       </c>
       <c r="P12" t="n">
         <v>103.1992340258669</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.9859549609268</v>
+        <v>68.98595496092678</v>
       </c>
       <c r="R12" t="n">
-        <v>33.55432856057175</v>
+        <v>33.55432856057173</v>
       </c>
       <c r="S12" t="n">
-        <v>10.03832872661919</v>
+        <v>10.03832872661918</v>
       </c>
       <c r="T12" t="n">
-        <v>2.178329185304141</v>
+        <v>2.17832918530414</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03555488332922974</v>
+        <v>0.03555488332922973</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4530819012227525</v>
+        <v>0.4530819012227523</v>
       </c>
       <c r="H13" t="n">
-        <v>4.028309994507748</v>
+        <v>4.028309994507747</v>
       </c>
       <c r="I13" t="n">
-        <v>13.6254084476806</v>
+        <v>13.62540844768059</v>
       </c>
       <c r="J13" t="n">
-        <v>32.0328904164486</v>
+        <v>32.03289041644859</v>
       </c>
       <c r="K13" t="n">
-        <v>52.63987906933433</v>
+        <v>52.63987906933431</v>
       </c>
       <c r="L13" t="n">
-        <v>67.36092193269906</v>
+        <v>67.36092193269903</v>
       </c>
       <c r="M13" t="n">
-        <v>71.02264747985383</v>
+        <v>71.0226474798538</v>
       </c>
       <c r="N13" t="n">
-        <v>69.33388766620544</v>
+        <v>69.33388766620541</v>
       </c>
       <c r="O13" t="n">
-        <v>64.04106727464873</v>
+        <v>64.0410672746487</v>
       </c>
       <c r="P13" t="n">
-        <v>54.79819648970452</v>
+        <v>54.7981964897045</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.9394308378434</v>
+        <v>37.93943083784338</v>
       </c>
       <c r="R13" t="n">
-        <v>20.37220984952485</v>
+        <v>20.37220984952484</v>
       </c>
       <c r="S13" t="n">
-        <v>7.895981860400148</v>
+        <v>7.895981860400145</v>
       </c>
       <c r="T13" t="n">
-        <v>1.935895396133579</v>
+        <v>1.935895396133578</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0247135582485138</v>
+        <v>0.02471355824851379</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,10 +31995,10 @@
         <v>10.34436276929185</v>
       </c>
       <c r="I14" t="n">
-        <v>38.94066111686799</v>
+        <v>38.94066111686798</v>
       </c>
       <c r="J14" t="n">
-        <v>85.72829094008883</v>
+        <v>85.7282909400888</v>
       </c>
       <c r="K14" t="n">
         <v>128.4844853523065</v>
@@ -32007,31 +32007,31 @@
         <v>159.3963654549029</v>
       </c>
       <c r="M14" t="n">
-        <v>177.3591689601776</v>
+        <v>177.3591689601775</v>
       </c>
       <c r="N14" t="n">
-        <v>180.2290257372556</v>
+        <v>180.2290257372555</v>
       </c>
       <c r="O14" t="n">
-        <v>170.1851583102183</v>
+        <v>170.1851583102182</v>
       </c>
       <c r="P14" t="n">
-        <v>145.249095244978</v>
+        <v>145.2490952449779</v>
       </c>
       <c r="Q14" t="n">
         <v>109.0760214819837</v>
       </c>
       <c r="R14" t="n">
-        <v>63.44870770721636</v>
+        <v>63.44870770721634</v>
       </c>
       <c r="S14" t="n">
-        <v>23.01693314832059</v>
+        <v>23.01693314832058</v>
       </c>
       <c r="T14" t="n">
-        <v>4.421574321745401</v>
+        <v>4.421574321745399</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08080547018609521</v>
+        <v>0.08080547018609519</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5404342266042919</v>
+        <v>0.5404342266042916</v>
       </c>
       <c r="H15" t="n">
-        <v>5.219456872730924</v>
+        <v>5.219456872730922</v>
       </c>
       <c r="I15" t="n">
-        <v>18.60705560896356</v>
+        <v>18.60705560896355</v>
       </c>
       <c r="J15" t="n">
-        <v>51.05918278632917</v>
+        <v>51.05918278632916</v>
       </c>
       <c r="K15" t="n">
-        <v>87.26827596881672</v>
+        <v>87.2682759688167</v>
       </c>
       <c r="L15" t="n">
         <v>117.3429666142345</v>
       </c>
       <c r="M15" t="n">
-        <v>136.9337073286401</v>
+        <v>136.93370732864</v>
       </c>
       <c r="N15" t="n">
         <v>140.5579351026662</v>
       </c>
       <c r="O15" t="n">
-        <v>128.5830503973817</v>
+        <v>128.5830503973816</v>
       </c>
       <c r="P15" t="n">
         <v>103.1992340258669</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.9859549609268</v>
+        <v>68.98595496092678</v>
       </c>
       <c r="R15" t="n">
-        <v>33.55432856057175</v>
+        <v>33.55432856057173</v>
       </c>
       <c r="S15" t="n">
-        <v>10.03832872661919</v>
+        <v>10.03832872661918</v>
       </c>
       <c r="T15" t="n">
         <v>2.17832918530414</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03555488332922974</v>
+        <v>0.03555488332922973</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4530819012227525</v>
+        <v>0.4530819012227523</v>
       </c>
       <c r="H16" t="n">
-        <v>4.028309994507748</v>
+        <v>4.028309994507747</v>
       </c>
       <c r="I16" t="n">
-        <v>13.6254084476806</v>
+        <v>13.62540844768059</v>
       </c>
       <c r="J16" t="n">
-        <v>32.0328904164486</v>
+        <v>32.03289041644859</v>
       </c>
       <c r="K16" t="n">
-        <v>52.63987906933433</v>
+        <v>52.63987906933431</v>
       </c>
       <c r="L16" t="n">
-        <v>67.36092193269906</v>
+        <v>67.36092193269903</v>
       </c>
       <c r="M16" t="n">
-        <v>71.02264747985382</v>
+        <v>71.0226474798538</v>
       </c>
       <c r="N16" t="n">
-        <v>69.33388766620544</v>
+        <v>69.33388766620541</v>
       </c>
       <c r="O16" t="n">
-        <v>64.04106727464871</v>
+        <v>64.0410672746487</v>
       </c>
       <c r="P16" t="n">
-        <v>54.79819648970452</v>
+        <v>54.7981964897045</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.9394308378434</v>
+        <v>37.93943083784338</v>
       </c>
       <c r="R16" t="n">
-        <v>20.37220984952485</v>
+        <v>20.37220984952484</v>
       </c>
       <c r="S16" t="n">
-        <v>7.895981860400147</v>
+        <v>7.895981860400145</v>
       </c>
       <c r="T16" t="n">
         <v>1.935895396133578</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0247135582485138</v>
+        <v>0.02471355824851379</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,46 +32229,46 @@
         <v>1.01006837732619</v>
       </c>
       <c r="H17" t="n">
-        <v>10.34436276929185</v>
+        <v>10.34436276929184</v>
       </c>
       <c r="I17" t="n">
-        <v>38.940661116868</v>
+        <v>38.94066111686797</v>
       </c>
       <c r="J17" t="n">
-        <v>85.72829094008884</v>
+        <v>85.72829094008878</v>
       </c>
       <c r="K17" t="n">
-        <v>128.4844853523065</v>
+        <v>128.4844853523064</v>
       </c>
       <c r="L17" t="n">
-        <v>159.3963654549029</v>
+        <v>159.3963654549028</v>
       </c>
       <c r="M17" t="n">
-        <v>177.3591689601776</v>
+        <v>177.3591689601775</v>
       </c>
       <c r="N17" t="n">
-        <v>180.2290257372556</v>
+        <v>180.2290257372555</v>
       </c>
       <c r="O17" t="n">
-        <v>170.1851583102183</v>
+        <v>170.1851583102182</v>
       </c>
       <c r="P17" t="n">
-        <v>145.249095244978</v>
+        <v>145.2490952449779</v>
       </c>
       <c r="Q17" t="n">
         <v>109.0760214819837</v>
       </c>
       <c r="R17" t="n">
-        <v>63.44870770721637</v>
+        <v>63.44870770721633</v>
       </c>
       <c r="S17" t="n">
-        <v>23.01693314832059</v>
+        <v>23.01693314832058</v>
       </c>
       <c r="T17" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745398</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08080547018609523</v>
+        <v>0.08080547018609517</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5404342266042919</v>
+        <v>0.5404342266042915</v>
       </c>
       <c r="H18" t="n">
-        <v>5.219456872730925</v>
+        <v>5.219456872730921</v>
       </c>
       <c r="I18" t="n">
-        <v>18.60705560896356</v>
+        <v>18.60705560896355</v>
       </c>
       <c r="J18" t="n">
-        <v>51.05918278632918</v>
+        <v>51.05918278632915</v>
       </c>
       <c r="K18" t="n">
-        <v>87.26827596881674</v>
+        <v>87.26827596881668</v>
       </c>
       <c r="L18" t="n">
-        <v>117.3429666142345</v>
+        <v>117.3429666142344</v>
       </c>
       <c r="M18" t="n">
-        <v>136.9337073286401</v>
+        <v>136.93370732864</v>
       </c>
       <c r="N18" t="n">
         <v>140.5579351026662</v>
       </c>
       <c r="O18" t="n">
-        <v>128.5830503973817</v>
+        <v>128.5830503973816</v>
       </c>
       <c r="P18" t="n">
         <v>103.1992340258669</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.9859549609268</v>
+        <v>68.98595496092676</v>
       </c>
       <c r="R18" t="n">
-        <v>33.55432856057175</v>
+        <v>33.55432856057173</v>
       </c>
       <c r="S18" t="n">
-        <v>10.03832872661919</v>
+        <v>10.03832872661918</v>
       </c>
       <c r="T18" t="n">
-        <v>2.178329185304141</v>
+        <v>2.178329185304139</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03555488332922974</v>
+        <v>0.03555488332922972</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4530819012227525</v>
+        <v>0.4530819012227522</v>
       </c>
       <c r="H19" t="n">
-        <v>4.028309994507748</v>
+        <v>4.028309994507746</v>
       </c>
       <c r="I19" t="n">
-        <v>13.6254084476806</v>
+        <v>13.62540844768059</v>
       </c>
       <c r="J19" t="n">
-        <v>32.0328904164486</v>
+        <v>32.03289041644858</v>
       </c>
       <c r="K19" t="n">
-        <v>52.63987906933433</v>
+        <v>52.63987906933429</v>
       </c>
       <c r="L19" t="n">
-        <v>67.36092193269906</v>
+        <v>67.36092193269901</v>
       </c>
       <c r="M19" t="n">
-        <v>71.02264747985383</v>
+        <v>71.02264747985379</v>
       </c>
       <c r="N19" t="n">
-        <v>69.33388766620544</v>
+        <v>69.3338876662054</v>
       </c>
       <c r="O19" t="n">
-        <v>64.04106727464873</v>
+        <v>64.04106727464868</v>
       </c>
       <c r="P19" t="n">
-        <v>54.79819648970452</v>
+        <v>54.79819648970449</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.9394308378434</v>
+        <v>37.93943083784337</v>
       </c>
       <c r="R19" t="n">
-        <v>20.37220984952485</v>
+        <v>20.37220984952484</v>
       </c>
       <c r="S19" t="n">
-        <v>7.895981860400148</v>
+        <v>7.895981860400143</v>
       </c>
       <c r="T19" t="n">
-        <v>1.935895396133579</v>
+        <v>1.935895396133577</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0247135582485138</v>
+        <v>0.02471355824851379</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,10 +32469,10 @@
         <v>10.34436276929185</v>
       </c>
       <c r="I20" t="n">
-        <v>38.940661116868</v>
+        <v>38.94066111686798</v>
       </c>
       <c r="J20" t="n">
-        <v>85.72829094008884</v>
+        <v>85.7282909400888</v>
       </c>
       <c r="K20" t="n">
         <v>128.4844853523065</v>
@@ -32481,31 +32481,31 @@
         <v>159.3963654549029</v>
       </c>
       <c r="M20" t="n">
-        <v>177.3591689601776</v>
+        <v>177.3591689601775</v>
       </c>
       <c r="N20" t="n">
-        <v>180.2290257372556</v>
+        <v>180.2290257372555</v>
       </c>
       <c r="O20" t="n">
-        <v>170.1851583102183</v>
+        <v>170.1851583102182</v>
       </c>
       <c r="P20" t="n">
-        <v>145.249095244978</v>
+        <v>145.2490952449779</v>
       </c>
       <c r="Q20" t="n">
         <v>109.0760214819837</v>
       </c>
       <c r="R20" t="n">
-        <v>63.44870770721637</v>
+        <v>63.44870770721634</v>
       </c>
       <c r="S20" t="n">
-        <v>23.01693314832059</v>
+        <v>23.01693314832058</v>
       </c>
       <c r="T20" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745399</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08080547018609523</v>
+        <v>0.08080547018609519</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5404342266042919</v>
+        <v>0.5404342266042916</v>
       </c>
       <c r="H21" t="n">
-        <v>5.219456872730925</v>
+        <v>5.219456872730922</v>
       </c>
       <c r="I21" t="n">
-        <v>18.60705560896356</v>
+        <v>18.60705560896355</v>
       </c>
       <c r="J21" t="n">
-        <v>51.05918278632918</v>
+        <v>51.05918278632916</v>
       </c>
       <c r="K21" t="n">
-        <v>87.26827596881674</v>
+        <v>87.2682759688167</v>
       </c>
       <c r="L21" t="n">
         <v>117.3429666142345</v>
       </c>
       <c r="M21" t="n">
-        <v>136.9337073286401</v>
+        <v>136.93370732864</v>
       </c>
       <c r="N21" t="n">
         <v>140.5579351026662</v>
       </c>
       <c r="O21" t="n">
-        <v>128.5830503973817</v>
+        <v>128.5830503973816</v>
       </c>
       <c r="P21" t="n">
         <v>103.1992340258669</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.9859549609268</v>
+        <v>68.98595496092678</v>
       </c>
       <c r="R21" t="n">
-        <v>33.55432856057175</v>
+        <v>33.55432856057173</v>
       </c>
       <c r="S21" t="n">
-        <v>10.03832872661919</v>
+        <v>10.03832872661918</v>
       </c>
       <c r="T21" t="n">
-        <v>2.178329185304141</v>
+        <v>2.17832918530414</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03555488332922974</v>
+        <v>0.03555488332922973</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4530819012227525</v>
+        <v>0.4530819012227523</v>
       </c>
       <c r="H22" t="n">
-        <v>4.028309994507748</v>
+        <v>4.028309994507747</v>
       </c>
       <c r="I22" t="n">
-        <v>13.6254084476806</v>
+        <v>13.62540844768059</v>
       </c>
       <c r="J22" t="n">
-        <v>32.0328904164486</v>
+        <v>32.03289041644859</v>
       </c>
       <c r="K22" t="n">
-        <v>52.63987906933433</v>
+        <v>52.63987906933431</v>
       </c>
       <c r="L22" t="n">
-        <v>67.36092193269906</v>
+        <v>67.36092193269903</v>
       </c>
       <c r="M22" t="n">
-        <v>71.02264747985383</v>
+        <v>71.0226474798538</v>
       </c>
       <c r="N22" t="n">
-        <v>69.33388766620544</v>
+        <v>69.33388766620541</v>
       </c>
       <c r="O22" t="n">
-        <v>64.04106727464873</v>
+        <v>64.0410672746487</v>
       </c>
       <c r="P22" t="n">
-        <v>54.79819648970452</v>
+        <v>54.7981964897045</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.9394308378434</v>
+        <v>37.93943083784338</v>
       </c>
       <c r="R22" t="n">
-        <v>20.37220984952485</v>
+        <v>20.37220984952484</v>
       </c>
       <c r="S22" t="n">
-        <v>7.895981860400148</v>
+        <v>7.895981860400145</v>
       </c>
       <c r="T22" t="n">
-        <v>1.935895396133579</v>
+        <v>1.935895396133578</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0247135582485138</v>
+        <v>0.02471355824851379</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35026,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O6" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.77900158547632</v>
+        <v>73.77900158547628</v>
       </c>
       <c r="K11" t="n">
-        <v>232.5400468784907</v>
+        <v>232.5400468784906</v>
       </c>
       <c r="L11" t="n">
         <v>341.2911650353661</v>
@@ -35424,13 +35424,13 @@
         <v>388.1628865526488</v>
       </c>
       <c r="O11" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512769</v>
       </c>
       <c r="P11" t="n">
-        <v>235.8148076611911</v>
+        <v>235.814807661191</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.08532226743893</v>
+        <v>99.08532226743888</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>121.8578402191578</v>
+        <v>213.8920740070363</v>
       </c>
       <c r="L12" t="n">
-        <v>349.6289321378195</v>
+        <v>349.6289321378194</v>
       </c>
       <c r="M12" t="n">
-        <v>460.5047371566217</v>
+        <v>460.5047371566216</v>
       </c>
       <c r="N12" t="n">
-        <v>488.5585973628865</v>
+        <v>488.5585973628864</v>
       </c>
       <c r="O12" t="n">
-        <v>379.8491252296668</v>
+        <v>379.8491252296667</v>
       </c>
       <c r="P12" t="n">
-        <v>287.6875952514739</v>
+        <v>56.57189285284105</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.0814686107544</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>30.37038724345148</v>
+        <v>30.37038724345145</v>
       </c>
       <c r="L13" t="n">
-        <v>94.9509471930152</v>
+        <v>94.95094719301517</v>
       </c>
       <c r="M13" t="n">
         <v>110.6065244416944</v>
@@ -35582,10 +35582,10 @@
         <v>113.466060045434</v>
       </c>
       <c r="O13" t="n">
-        <v>88.6261951886884</v>
+        <v>88.62619518868837</v>
       </c>
       <c r="P13" t="n">
-        <v>52.07675575459801</v>
+        <v>52.07675575459799</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.77900158547631</v>
+        <v>73.77900158547628</v>
       </c>
       <c r="K14" t="n">
-        <v>232.5400468784907</v>
+        <v>232.5400468784906</v>
       </c>
       <c r="L14" t="n">
         <v>341.2911650353661</v>
@@ -35664,10 +35664,10 @@
         <v>320.8871281512769</v>
       </c>
       <c r="P14" t="n">
-        <v>235.8148076611911</v>
+        <v>235.814807661191</v>
       </c>
       <c r="Q14" t="n">
-        <v>99.08532226743891</v>
+        <v>99.08532226743888</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>50.31259146007132</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>213.8920740070363</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>349.6289321378195</v>
+        <v>349.6289321378194</v>
       </c>
       <c r="M15" t="n">
-        <v>460.5047371566217</v>
+        <v>460.5047371566216</v>
       </c>
       <c r="N15" t="n">
-        <v>207.1303035041824</v>
+        <v>488.5585973628864</v>
       </c>
       <c r="O15" t="n">
-        <v>379.8491252296668</v>
+        <v>379.8491252296667</v>
       </c>
       <c r="P15" t="n">
-        <v>287.6875952514739</v>
+        <v>287.6875952514738</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.0814686107544</v>
+        <v>121.8578402191577</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.37038724345148</v>
+        <v>30.37038724345145</v>
       </c>
       <c r="L16" t="n">
-        <v>94.9509471930152</v>
+        <v>94.95094719301517</v>
       </c>
       <c r="M16" t="n">
         <v>110.6065244416944</v>
@@ -35819,10 +35819,10 @@
         <v>113.466060045434</v>
       </c>
       <c r="O16" t="n">
-        <v>88.62619518868838</v>
+        <v>88.62619518868837</v>
       </c>
       <c r="P16" t="n">
-        <v>52.076755754598</v>
+        <v>52.07675575459799</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.77900158547632</v>
+        <v>73.77900158547627</v>
       </c>
       <c r="K17" t="n">
-        <v>232.5400468784907</v>
+        <v>232.5400468784906</v>
       </c>
       <c r="L17" t="n">
-        <v>341.2911650353661</v>
+        <v>341.291165035366</v>
       </c>
       <c r="M17" t="n">
-        <v>396.5264692257373</v>
+        <v>396.5264692257372</v>
       </c>
       <c r="N17" t="n">
-        <v>388.1628865526488</v>
+        <v>388.1628865526487</v>
       </c>
       <c r="O17" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512768</v>
       </c>
       <c r="P17" t="n">
-        <v>235.8148076611911</v>
+        <v>235.814807661191</v>
       </c>
       <c r="Q17" t="n">
-        <v>99.08532226743893</v>
+        <v>99.08532226743885</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>121.8578402191578</v>
+        <v>121.8578402191576</v>
       </c>
       <c r="L18" t="n">
-        <v>349.6289321378195</v>
+        <v>349.6289321378194</v>
       </c>
       <c r="M18" t="n">
-        <v>460.5047371566217</v>
+        <v>460.5047371566216</v>
       </c>
       <c r="N18" t="n">
-        <v>488.5585973628865</v>
+        <v>488.5585973628864</v>
       </c>
       <c r="O18" t="n">
-        <v>379.8491252296668</v>
+        <v>379.8491252296667</v>
       </c>
       <c r="P18" t="n">
-        <v>287.6875952514739</v>
+        <v>287.6875952514738</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,10 +36044,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>30.37038724345148</v>
+        <v>30.37038724345144</v>
       </c>
       <c r="L19" t="n">
-        <v>94.9509471930152</v>
+        <v>94.95094719301515</v>
       </c>
       <c r="M19" t="n">
         <v>110.6065244416944</v>
@@ -36056,10 +36056,10 @@
         <v>113.466060045434</v>
       </c>
       <c r="O19" t="n">
-        <v>88.6261951886884</v>
+        <v>88.62619518868836</v>
       </c>
       <c r="P19" t="n">
-        <v>52.07675575459801</v>
+        <v>52.07675575459798</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.77900158547632</v>
+        <v>73.77900158547628</v>
       </c>
       <c r="K20" t="n">
-        <v>232.5400468784907</v>
+        <v>232.5400468784906</v>
       </c>
       <c r="L20" t="n">
         <v>341.2911650353661</v>
@@ -36135,13 +36135,13 @@
         <v>388.1628865526488</v>
       </c>
       <c r="O20" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512769</v>
       </c>
       <c r="P20" t="n">
-        <v>235.8148076611911</v>
+        <v>235.814807661191</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.08532226743893</v>
+        <v>99.08532226743888</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>121.8578402191576</v>
       </c>
       <c r="L21" t="n">
-        <v>332.405303746223</v>
+        <v>349.6289321378194</v>
       </c>
       <c r="M21" t="n">
-        <v>460.5047371566217</v>
+        <v>460.5047371566216</v>
       </c>
       <c r="N21" t="n">
-        <v>488.5585973628865</v>
+        <v>488.5585973628864</v>
       </c>
       <c r="O21" t="n">
-        <v>379.8491252296668</v>
+        <v>379.8491252296667</v>
       </c>
       <c r="P21" t="n">
-        <v>287.6875952514739</v>
+        <v>287.6875952514738</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.0814686107544</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,10 +36281,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>30.37038724345148</v>
+        <v>30.37038724345145</v>
       </c>
       <c r="L22" t="n">
-        <v>94.9509471930152</v>
+        <v>94.95094719301517</v>
       </c>
       <c r="M22" t="n">
         <v>110.6065244416944</v>
@@ -36293,10 +36293,10 @@
         <v>113.466060045434</v>
       </c>
       <c r="O22" t="n">
-        <v>88.6261951886884</v>
+        <v>88.62619518868837</v>
       </c>
       <c r="P22" t="n">
-        <v>52.07675575459801</v>
+        <v>52.07675575459799</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36685,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37867,13 +37867,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343413</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
         <v>421.5361394435301</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
